--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_11_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_11_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1456169.794787137</v>
+        <v>1403446.00130844</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1542645.372647712</v>
+        <v>1542645.372647716</v>
       </c>
     </row>
     <row r="8">
@@ -1153,10 +1153,10 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1226,16 +1226,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>5.309829763041575</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1268,19 +1268,19 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>6.056421089299432</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1290,55 +1290,55 @@
         </is>
       </c>
       <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3.334980354192922</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.721440735106512</v>
+      </c>
+      <c r="Q10" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>6.876045741711437</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
       <c r="R10" t="n">
-        <v>6.05642108929943</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1372,10 +1372,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>214.8772892622248</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>53.98773491723487</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>103.7612438878174</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>192.2937737632647</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>219.8827125387842</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2869319570592</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1454,7 +1454,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>116.5827316752294</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1463,10 +1463,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>136.9507861816851</v>
       </c>
       <c r="H12" t="n">
-        <v>108.4424897570263</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>75.87497405766374</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>75.77406321196236</v>
       </c>
       <c r="S12" t="n">
         <v>164.3883653724318</v>
@@ -1511,13 +1511,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>119.4323131308272</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1533,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>92.46899842909502</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1593,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>92.46899842909491</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1606,22 +1606,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>110.4563187266461</v>
+        <v>414.5687256304184</v>
       </c>
       <c r="H14" t="n">
         <v>331.9576029014128</v>
@@ -1657,13 +1657,13 @@
         <v>103.7612438878174</v>
       </c>
       <c r="S14" t="n">
-        <v>192.2937737632647</v>
+        <v>97.06167325462852</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2869319570592</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1685,25 +1685,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>59.43139574635549</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>136.8284558740746</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>108.4424897570263</v>
       </c>
       <c r="I15" t="n">
         <v>75.87497405766374</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>75.77406321196236</v>
       </c>
       <c r="S15" t="n">
         <v>164.3883653724318</v>
@@ -1745,7 +1745,7 @@
         <v>225.9155445164008</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>73.9212943355368</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1782,13 +1782,13 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>159.2998187978633</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>145.5489554269736</v>
       </c>
       <c r="J16" t="n">
-        <v>70.0810310375573</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1824,13 +1824,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>82.97938213377942</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1846,22 +1846,22 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>331.9576029014128</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1891,25 +1891,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>37.61410158085226</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>192.2937737632647</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>219.8827125387842</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2869319570592</v>
       </c>
       <c r="V17" t="n">
-        <v>245.8381261708685</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1928,22 +1928,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>44.6245027466793</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>136.9507861816851</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>75.87497405766374</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1988,7 +1988,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>110.0051974213889</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2007,16 +2007,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>62.49286864592497</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>167.6617268962365</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2046,10 +2046,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>58.59163934688113</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>162.4890033939748</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>157.6894258195179</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2083,13 +2083,13 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2098,10 +2098,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>331.9576029014128</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>153.4425488310413</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>103.7612438878174</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2137,10 +2137,10 @@
         <v>219.8827125387842</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2869319570592</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>65.58401413512615</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2159,19 +2159,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>136.9507861816851</v>
@@ -2180,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>75.87497405766374</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>75.77406321196236</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>164.3883653724318</v>
@@ -2219,13 +2219,13 @@
         <v>225.9155445164008</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>73.63267631849739</v>
       </c>
       <c r="X21" t="n">
-        <v>157.6236609934913</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -2244,13 +2244,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>83.72063289559227</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>162.4890033939748</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2301,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>216.281065166399</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2320,19 +2320,19 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>271.3074652025501</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>414.5687256304184</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2377,16 +2377,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>253.1935053399472</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2399,25 +2399,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>124.2016173641325</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>70.42846118301567</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>75.87497405766374</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2447,10 +2447,10 @@
         <v>75.77406321196236</v>
       </c>
       <c r="S24" t="n">
-        <v>164.3883653724318</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>198.581747238585</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>225.9155445164008</v>
@@ -2465,7 +2465,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2520,25 +2520,25 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>58.59163934688113</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>218.2786255816985</v>
       </c>
       <c r="T25" t="n">
-        <v>226.5387834533317</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>160.4914429786754</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>93.63964576016096</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2554,16 +2554,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>265.055577926392</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>87.07272438240416</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2602,22 +2602,22 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>103.7612438878174</v>
       </c>
       <c r="S26" t="n">
-        <v>192.2937737632647</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>219.8827125387842</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2869319570592</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2642,13 +2642,13 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>136.9507861816851</v>
       </c>
       <c r="H27" t="n">
         <v>108.4424897570263</v>
@@ -2687,7 +2687,7 @@
         <v>164.3883653724318</v>
       </c>
       <c r="T27" t="n">
-        <v>198.581747238585</v>
+        <v>131.7243685890558</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -2696,7 +2696,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>227.738487987557</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>162.4890033939748</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>216.281065166399</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>92.2470702237828</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2775,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2800,16 +2800,16 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>414.5687256304184</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>331.9576029014128</v>
       </c>
       <c r="I29" t="n">
         <v>182.1778963848673</v>
@@ -2839,22 +2839,22 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>103.7612438878174</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>219.8827125387842</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>101.2001767612507</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>60.24817472828272</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2876,7 +2876,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -2891,7 +2891,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>42.87946401425737</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,16 +2918,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>75.77406321196236</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>164.3883653724318</v>
+        <v>155.7393863469358</v>
       </c>
       <c r="T30" t="n">
         <v>198.581747238585</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9155445164008</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -2936,7 +2936,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -3000,16 +3000,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>218.2786255816985</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>160.4914429786754</v>
+        <v>126.6324252365458</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3034,16 +3034,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>46.01888748893851</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>192.2937737632647</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>219.8827125387842</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3091,13 +3091,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>58.35978922566392</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3107,19 +3107,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>3.538751614945884</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>64.34343527074086</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3128,7 +3128,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>75.87497405766374</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>75.77406321196236</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>164.3883653724318</v>
@@ -3173,7 +3173,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -3195,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>13.75145256170981</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3231,16 +3231,16 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>58.59163934688113</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>162.4890033939748</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>157.6894258195179</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3268,13 +3268,13 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>1.943844530589365</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3283,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>331.9576029014128</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3319,16 +3319,16 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>219.8827125387842</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>194.2698864040793</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3344,10 +3344,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>89.50812940054863</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -3359,7 +3359,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>136.9507861816851</v>
       </c>
       <c r="H36" t="n">
         <v>108.4424897570263</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>75.77406321196234</v>
+        <v>75.77406321196236</v>
       </c>
       <c r="S36" t="n">
         <v>164.3883653724318</v>
@@ -3401,10 +3401,10 @@
         <v>198.581747238585</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9155445164008</v>
+        <v>199.4154637689362</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
@@ -3413,7 +3413,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3483,10 +3483,10 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>50.32261536022418</v>
       </c>
       <c r="W37" t="n">
-        <v>126.6324252365458</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>137.4023292374592</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3511,13 +3511,13 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>134.2066183178713</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>414.5687256304184</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>331.9576029014128</v>
@@ -3553,10 +3553,10 @@
         <v>103.7612438878174</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>192.2937737632647</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>219.8827125387842</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3581,7 +3581,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
@@ -3599,10 +3599,10 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>108.4424897570263</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>75.87497405766374</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,28 +3629,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>75.77406321196234</v>
+        <v>75.77406321196236</v>
       </c>
       <c r="S39" t="n">
         <v>164.3883653724318</v>
       </c>
       <c r="T39" t="n">
-        <v>198.581747238585</v>
+        <v>84.50462727587562</v>
       </c>
       <c r="U39" t="n">
-        <v>12.1964357130498</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3705,16 +3705,16 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>58.59163934688112</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>162.4890033939748</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>216.281065166399</v>
       </c>
       <c r="T40" t="n">
-        <v>157.6894258195179</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3739,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>414.5687256304184</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>182.1778963848673</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,28 +3787,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>103.7612438878174</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>192.2937737632647</v>
       </c>
       <c r="T41" t="n">
-        <v>98.39228401455669</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>233.2214054002036</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3818,10 +3818,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -3833,10 +3833,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>136.9507861816851</v>
+        <v>97.35823522410146</v>
       </c>
       <c r="H42" t="n">
-        <v>108.4424897570263</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>75.77406321196236</v>
       </c>
       <c r="S42" t="n">
         <v>164.3883653724318</v>
@@ -3875,10 +3875,10 @@
         <v>198.581747238585</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9155445164008</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -3887,7 +3887,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>13.94726924701422</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3900,10 +3900,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>92.46899842909508</v>
+        <v>62.90777444353365</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.3010701312788</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3985,13 +3985,13 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>171.488257057255</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>414.5687256304184</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4030,7 +4030,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>219.8827125387842</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4039,13 +4039,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>378.2255644180803</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4055,7 +4055,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
@@ -4064,16 +4064,16 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>136.9507861816851</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>108.4424897570263</v>
       </c>
       <c r="I45" t="n">
         <v>75.87497405766374</v>
@@ -4103,28 +4103,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>75.77406321196234</v>
+        <v>75.77406321196236</v>
       </c>
       <c r="S45" t="n">
-        <v>162.1470660109833</v>
+        <v>164.3883653724318</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>198.581747238585</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9155445164008</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>93.82709344505341</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4137,22 +4137,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>73.03628711594098</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>159.2998187978633</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4194,7 +4194,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>211.523247461746</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4801,25 +4801,25 @@
         <v>7.495584408540386</v>
       </c>
       <c r="I8" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="J8" t="n">
         <v>0.5500836593369149</v>
       </c>
       <c r="K8" t="n">
+        <v>0.5500836593369149</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.5500836593369149</v>
+      </c>
+      <c r="M8" t="n">
         <v>7.357368943631237</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>14.16465422792556</v>
       </c>
-      <c r="M8" t="n">
+      <c r="O8" t="n">
         <v>20.97193951221988</v>
-      </c>
-      <c r="N8" t="n">
-        <v>27.50418296684575</v>
-      </c>
-      <c r="O8" t="n">
-        <v>27.50418296684575</v>
       </c>
       <c r="P8" t="n">
         <v>27.50418296684575</v>
@@ -4859,43 +4859,43 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.5500836593369149</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5500836593369149</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5500836593369149</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5500836593369149</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="F9" t="n">
-        <v>0.5500836593369149</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5500836593369149</v>
+        <v>15.19521781052957</v>
       </c>
       <c r="H9" t="n">
-        <v>0.5500836593369149</v>
+        <v>8.2497170613261</v>
       </c>
       <c r="I9" t="n">
-        <v>0.5500836593369149</v>
+        <v>1.304216312122629</v>
       </c>
       <c r="J9" t="n">
         <v>0.5500836593369149</v>
       </c>
       <c r="K9" t="n">
-        <v>7.357368943631237</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="L9" t="n">
-        <v>7.357368943631237</v>
+        <v>7.082327113962777</v>
       </c>
       <c r="M9" t="n">
-        <v>14.16465422792556</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="N9" t="n">
-        <v>20.97193951221988</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="O9" t="n">
         <v>27.50418296684575</v>
@@ -4916,19 +4916,19 @@
         <v>20.55868221764227</v>
       </c>
       <c r="U9" t="n">
-        <v>13.6131814684388</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="V9" t="n">
-        <v>13.6131814684388</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="W9" t="n">
-        <v>7.495584408540386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="X9" t="n">
-        <v>7.495584408540386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.5500836593369149</v>
+        <v>20.55868221764227</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14.44108515774386</v>
+        <v>17.80975218218115</v>
       </c>
       <c r="C10" t="n">
-        <v>14.44108515774386</v>
+        <v>10.86425143297768</v>
       </c>
       <c r="D10" t="n">
-        <v>14.44108515774386</v>
+        <v>3.91875068377421</v>
       </c>
       <c r="E10" t="n">
-        <v>7.495584408540386</v>
+        <v>3.91875068377421</v>
       </c>
       <c r="F10" t="n">
-        <v>7.495584408540386</v>
+        <v>3.91875068377421</v>
       </c>
       <c r="G10" t="n">
-        <v>7.495584408540386</v>
+        <v>3.91875068377421</v>
       </c>
       <c r="H10" t="n">
-        <v>7.495584408540386</v>
+        <v>3.91875068377421</v>
       </c>
       <c r="I10" t="n">
-        <v>0.5500836593369149</v>
+        <v>3.91875068377421</v>
       </c>
       <c r="J10" t="n">
-        <v>0.5500836593369149</v>
+        <v>3.91875068377421</v>
       </c>
       <c r="K10" t="n">
         <v>0.5500836593369149</v>
@@ -4971,43 +4971,43 @@
         <v>7.357368943631237</v>
       </c>
       <c r="M10" t="n">
-        <v>13.8896123982571</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="N10" t="n">
-        <v>20.69689768255142</v>
+        <v>20.97193951221988</v>
       </c>
       <c r="O10" t="n">
         <v>27.50418296684575</v>
       </c>
       <c r="P10" t="n">
-        <v>27.50418296684575</v>
+        <v>24.75525293138463</v>
       </c>
       <c r="Q10" t="n">
-        <v>27.50418296684575</v>
+        <v>17.80975218218115</v>
       </c>
       <c r="R10" t="n">
-        <v>21.38658590694733</v>
+        <v>17.80975218218115</v>
       </c>
       <c r="S10" t="n">
-        <v>21.38658590694733</v>
+        <v>17.80975218218115</v>
       </c>
       <c r="T10" t="n">
-        <v>21.38658590694733</v>
+        <v>17.80975218218115</v>
       </c>
       <c r="U10" t="n">
-        <v>21.38658590694733</v>
+        <v>17.80975218218115</v>
       </c>
       <c r="V10" t="n">
-        <v>21.38658590694733</v>
+        <v>17.80975218218115</v>
       </c>
       <c r="W10" t="n">
-        <v>21.38658590694733</v>
+        <v>17.80975218218115</v>
       </c>
       <c r="X10" t="n">
-        <v>21.38658590694733</v>
+        <v>17.80975218218115</v>
       </c>
       <c r="Y10" t="n">
-        <v>21.38658590694733</v>
+        <v>17.80975218218115</v>
       </c>
     </row>
     <row r="11">
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>671.6102630966602</v>
+        <v>509.0955617380845</v>
       </c>
       <c r="C11" t="n">
-        <v>454.56249616512</v>
+        <v>509.0955617380845</v>
       </c>
       <c r="D11" t="n">
         <v>454.56249616512</v>
@@ -5041,13 +5041,13 @@
         <v>35.80620764954585</v>
       </c>
       <c r="J11" t="n">
-        <v>85.65176897694448</v>
+        <v>85.6517689769446</v>
       </c>
       <c r="K11" t="n">
-        <v>281.1021485255871</v>
+        <v>281.1021485255872</v>
       </c>
       <c r="L11" t="n">
-        <v>575.8522548026941</v>
+        <v>575.8522548026942</v>
       </c>
       <c r="M11" t="n">
         <v>920.4250857743282</v>
@@ -5068,25 +5068,25 @@
         <v>1685.501045216871</v>
       </c>
       <c r="S11" t="n">
-        <v>1685.501045216871</v>
+        <v>1491.264910102462</v>
       </c>
       <c r="T11" t="n">
-        <v>1685.501045216871</v>
+        <v>1269.161160063286</v>
       </c>
       <c r="U11" t="n">
-        <v>1431.675861421862</v>
+        <v>1269.161160063286</v>
       </c>
       <c r="V11" t="n">
-        <v>1431.675861421862</v>
+        <v>1269.161160063286</v>
       </c>
       <c r="W11" t="n">
-        <v>1431.675861421862</v>
+        <v>1269.161160063286</v>
       </c>
       <c r="X11" t="n">
-        <v>1058.210103160782</v>
+        <v>895.6954018022063</v>
       </c>
       <c r="Y11" t="n">
-        <v>1058.210103160782</v>
+        <v>895.6954018022063</v>
       </c>
     </row>
     <row r="12">
@@ -5096,22 +5096,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>691.9074609435139</v>
+        <v>689.5296453225537</v>
       </c>
       <c r="C12" t="n">
-        <v>517.4544316623869</v>
+        <v>515.0766160414267</v>
       </c>
       <c r="D12" t="n">
-        <v>368.5200220011357</v>
+        <v>397.3162810159425</v>
       </c>
       <c r="E12" t="n">
-        <v>368.5200220011357</v>
+        <v>397.3162810159425</v>
       </c>
       <c r="F12" t="n">
-        <v>221.9854640280207</v>
+        <v>250.7817230428275</v>
       </c>
       <c r="G12" t="n">
-        <v>221.9854640280207</v>
+        <v>112.4475955865799</v>
       </c>
       <c r="H12" t="n">
         <v>112.4475955865799</v>
@@ -5120,22 +5120,22 @@
         <v>35.80620764954585</v>
       </c>
       <c r="J12" t="n">
-        <v>71.80050281686087</v>
+        <v>35.80620764954585</v>
       </c>
       <c r="K12" t="n">
-        <v>259.9413294595961</v>
+        <v>35.80620764954585</v>
       </c>
       <c r="L12" t="n">
-        <v>574.3242851876668</v>
+        <v>330.211636004298</v>
       </c>
       <c r="M12" t="n">
-        <v>993.173587676587</v>
+        <v>749.0609384932183</v>
       </c>
       <c r="N12" t="n">
-        <v>1436.275407339717</v>
+        <v>1192.162758156348</v>
       </c>
       <c r="O12" t="n">
-        <v>1777.535105543269</v>
+        <v>1533.422456359901</v>
       </c>
       <c r="P12" t="n">
         <v>1790.310382477293</v>
@@ -5144,28 +5144,28 @@
         <v>1790.310382477293</v>
       </c>
       <c r="R12" t="n">
-        <v>1790.310382477293</v>
+        <v>1713.770924687432</v>
       </c>
       <c r="S12" t="n">
-        <v>1624.261528565745</v>
+        <v>1547.722070775884</v>
       </c>
       <c r="T12" t="n">
-        <v>1423.673905092427</v>
+        <v>1347.134447302566</v>
       </c>
       <c r="U12" t="n">
-        <v>1423.673905092427</v>
+        <v>1347.134447302566</v>
       </c>
       <c r="V12" t="n">
-        <v>1188.521796860684</v>
+        <v>1111.982339070823</v>
       </c>
       <c r="W12" t="n">
-        <v>1067.883096728536</v>
+        <v>857.7449823426218</v>
       </c>
       <c r="X12" t="n">
-        <v>1067.883096728536</v>
+        <v>857.7449823426218</v>
       </c>
       <c r="Y12" t="n">
-        <v>860.1227979635819</v>
+        <v>857.7449823426218</v>
       </c>
     </row>
     <row r="13">
@@ -5175,10 +5175,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>129.2092363658035</v>
+        <v>35.80620764954585</v>
       </c>
       <c r="C13" t="n">
-        <v>129.2092363658035</v>
+        <v>35.80620764954585</v>
       </c>
       <c r="D13" t="n">
         <v>35.80620764954585</v>
@@ -5202,49 +5202,49 @@
         <v>35.80620764954585</v>
       </c>
       <c r="K13" t="n">
-        <v>51.63002894672892</v>
+        <v>51.63002894672891</v>
       </c>
       <c r="L13" t="n">
         <v>127.405506859091</v>
       </c>
       <c r="M13" t="n">
-        <v>217.6892469062028</v>
+        <v>217.6892469062027</v>
       </c>
       <c r="N13" t="n">
         <v>311.2608578309284</v>
       </c>
       <c r="O13" t="n">
-        <v>381.6730900095164</v>
+        <v>381.6730900095163</v>
       </c>
       <c r="P13" t="n">
-        <v>418.4022364984083</v>
+        <v>418.4022364984082</v>
       </c>
       <c r="Q13" t="n">
-        <v>418.4022364984083</v>
+        <v>418.4022364984082</v>
       </c>
       <c r="R13" t="n">
-        <v>418.4022364984083</v>
+        <v>418.4022364984082</v>
       </c>
       <c r="S13" t="n">
-        <v>418.4022364984083</v>
+        <v>418.4022364984082</v>
       </c>
       <c r="T13" t="n">
-        <v>418.4022364984083</v>
+        <v>418.4022364984082</v>
       </c>
       <c r="U13" t="n">
-        <v>129.2092363658035</v>
+        <v>129.2092363658033</v>
       </c>
       <c r="V13" t="n">
-        <v>129.2092363658035</v>
+        <v>129.2092363658033</v>
       </c>
       <c r="W13" t="n">
-        <v>129.2092363658035</v>
+        <v>129.2092363658033</v>
       </c>
       <c r="X13" t="n">
-        <v>129.2092363658035</v>
+        <v>35.80620764954585</v>
       </c>
       <c r="Y13" t="n">
-        <v>129.2092363658035</v>
+        <v>35.80620764954585</v>
       </c>
     </row>
     <row r="14">
@@ -5254,40 +5254,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1237.439726307453</v>
+        <v>1200.859110956155</v>
       </c>
       <c r="C14" t="n">
-        <v>868.4772093670415</v>
+        <v>1200.859110956155</v>
       </c>
       <c r="D14" t="n">
-        <v>868.4772093670415</v>
+        <v>1200.859110956155</v>
       </c>
       <c r="E14" t="n">
-        <v>482.6889567687973</v>
+        <v>1200.859110956155</v>
       </c>
       <c r="F14" t="n">
-        <v>482.6889567687973</v>
+        <v>789.8732061665471</v>
       </c>
       <c r="G14" t="n">
         <v>371.1169176509729</v>
       </c>
       <c r="H14" t="n">
-        <v>35.80620764954586</v>
+        <v>35.80620764954585</v>
       </c>
       <c r="I14" t="n">
-        <v>35.80620764954586</v>
+        <v>35.80620764954585</v>
       </c>
       <c r="J14" t="n">
-        <v>85.65176897694454</v>
+        <v>85.6517689769444</v>
       </c>
       <c r="K14" t="n">
-        <v>281.1021485255872</v>
+        <v>281.102148525587</v>
       </c>
       <c r="L14" t="n">
-        <v>575.8522548026942</v>
+        <v>575.852254802694</v>
       </c>
       <c r="M14" t="n">
-        <v>920.4250857743283</v>
+        <v>920.4250857743281</v>
       </c>
       <c r="N14" t="n">
         <v>1255.941467845074</v>
@@ -5299,31 +5299,31 @@
         <v>1721.728799043154</v>
       </c>
       <c r="Q14" t="n">
-        <v>1790.310382477293</v>
+        <v>1790.310382477292</v>
       </c>
       <c r="R14" t="n">
         <v>1685.501045216871</v>
       </c>
       <c r="S14" t="n">
-        <v>1491.264910102462</v>
+        <v>1587.458951020276</v>
       </c>
       <c r="T14" t="n">
-        <v>1491.264910102462</v>
+        <v>1587.458951020276</v>
       </c>
       <c r="U14" t="n">
-        <v>1237.439726307453</v>
+        <v>1587.458951020276</v>
       </c>
       <c r="V14" t="n">
-        <v>1237.439726307453</v>
+        <v>1587.458951020276</v>
       </c>
       <c r="W14" t="n">
-        <v>1237.439726307453</v>
+        <v>1587.458951020276</v>
       </c>
       <c r="X14" t="n">
-        <v>1237.439726307453</v>
+        <v>1587.458951020276</v>
       </c>
       <c r="Y14" t="n">
-        <v>1237.439726307453</v>
+        <v>1587.458951020276</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>584.3486413621267</v>
+        <v>851.1449159489695</v>
       </c>
       <c r="C15" t="n">
-        <v>409.8956120809997</v>
+        <v>676.6918866678425</v>
       </c>
       <c r="D15" t="n">
-        <v>271.6850505920355</v>
+        <v>527.7574770065912</v>
       </c>
       <c r="E15" t="n">
-        <v>112.44759558658</v>
+        <v>368.5200220011357</v>
       </c>
       <c r="F15" t="n">
-        <v>112.44759558658</v>
+        <v>221.9854640280207</v>
       </c>
       <c r="G15" t="n">
-        <v>112.44759558658</v>
+        <v>221.9854640280207</v>
       </c>
       <c r="H15" t="n">
-        <v>112.44759558658</v>
+        <v>112.4475955865799</v>
       </c>
       <c r="I15" t="n">
-        <v>35.80620764954586</v>
+        <v>35.80620764954585</v>
       </c>
       <c r="J15" t="n">
-        <v>71.80050281686087</v>
+        <v>35.80620764954585</v>
       </c>
       <c r="K15" t="n">
-        <v>259.9413294595961</v>
+        <v>223.947034292281</v>
       </c>
       <c r="L15" t="n">
-        <v>574.3242851876668</v>
+        <v>538.3299900203517</v>
       </c>
       <c r="M15" t="n">
-        <v>630.0359323419266</v>
+        <v>957.1792925092719</v>
       </c>
       <c r="N15" t="n">
-        <v>1073.137752005057</v>
+        <v>1400.281112172402</v>
       </c>
       <c r="O15" t="n">
-        <v>1414.397450208609</v>
+        <v>1741.540810375954</v>
       </c>
       <c r="P15" t="n">
-        <v>1671.285376326001</v>
+        <v>1790.310382477292</v>
       </c>
       <c r="Q15" t="n">
-        <v>1790.310382477293</v>
+        <v>1790.310382477292</v>
       </c>
       <c r="R15" t="n">
-        <v>1790.310382477293</v>
+        <v>1713.770924687431</v>
       </c>
       <c r="S15" t="n">
-        <v>1624.261528565746</v>
+        <v>1547.722070775884</v>
       </c>
       <c r="T15" t="n">
-        <v>1423.673905092428</v>
+        <v>1347.134447302566</v>
       </c>
       <c r="U15" t="n">
-        <v>1195.476385378891</v>
+        <v>1118.93692758903</v>
       </c>
       <c r="V15" t="n">
-        <v>960.3242771471487</v>
+        <v>1118.93692758903</v>
       </c>
       <c r="W15" t="n">
-        <v>960.3242771471487</v>
+        <v>1118.93692758903</v>
       </c>
       <c r="X15" t="n">
-        <v>960.3242771471487</v>
+        <v>1118.93692758903</v>
       </c>
       <c r="Y15" t="n">
-        <v>752.5639783821948</v>
+        <v>911.176628824076</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>106.5951278895027</v>
+        <v>418.4022364984082</v>
       </c>
       <c r="C16" t="n">
-        <v>106.5951278895027</v>
+        <v>418.4022364984082</v>
       </c>
       <c r="D16" t="n">
-        <v>106.5951278895027</v>
+        <v>343.7342624221084</v>
       </c>
       <c r="E16" t="n">
-        <v>106.5951278895027</v>
+        <v>343.7342624221084</v>
       </c>
       <c r="F16" t="n">
-        <v>106.5951278895027</v>
+        <v>343.7342624221084</v>
       </c>
       <c r="G16" t="n">
-        <v>106.5951278895027</v>
+        <v>343.7342624221084</v>
       </c>
       <c r="H16" t="n">
-        <v>106.5951278895027</v>
+        <v>182.8253545454788</v>
       </c>
       <c r="I16" t="n">
-        <v>106.5951278895027</v>
+        <v>35.80620764954585</v>
       </c>
       <c r="J16" t="n">
-        <v>35.80620764954586</v>
+        <v>35.80620764954585</v>
       </c>
       <c r="K16" t="n">
-        <v>51.63002894672893</v>
+        <v>51.63002894672891</v>
       </c>
       <c r="L16" t="n">
         <v>127.405506859091</v>
       </c>
       <c r="M16" t="n">
-        <v>217.6892469062028</v>
+        <v>217.6892469062027</v>
       </c>
       <c r="N16" t="n">
         <v>311.2608578309284</v>
       </c>
       <c r="O16" t="n">
-        <v>381.6730900095164</v>
+        <v>381.6730900095163</v>
       </c>
       <c r="P16" t="n">
-        <v>418.4022364984083</v>
+        <v>418.4022364984082</v>
       </c>
       <c r="Q16" t="n">
-        <v>418.4022364984083</v>
+        <v>418.4022364984082</v>
       </c>
       <c r="R16" t="n">
-        <v>418.4022364984083</v>
+        <v>418.4022364984082</v>
       </c>
       <c r="S16" t="n">
-        <v>418.4022364984083</v>
+        <v>418.4022364984082</v>
       </c>
       <c r="T16" t="n">
-        <v>418.4022364984083</v>
+        <v>418.4022364984082</v>
       </c>
       <c r="U16" t="n">
-        <v>418.4022364984083</v>
+        <v>418.4022364984082</v>
       </c>
       <c r="V16" t="n">
-        <v>334.58467878752</v>
+        <v>418.4022364984082</v>
       </c>
       <c r="W16" t="n">
-        <v>334.58467878752</v>
+        <v>418.4022364984082</v>
       </c>
       <c r="X16" t="n">
-        <v>106.5951278895027</v>
+        <v>418.4022364984082</v>
       </c>
       <c r="Y16" t="n">
-        <v>106.5951278895027</v>
+        <v>418.4022364984082</v>
       </c>
     </row>
     <row r="17">
@@ -5491,40 +5491,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>815.7546293795651</v>
+        <v>729.3826162577234</v>
       </c>
       <c r="C17" t="n">
-        <v>446.7921124391534</v>
+        <v>729.3826162577234</v>
       </c>
       <c r="D17" t="n">
-        <v>446.7921124391534</v>
+        <v>371.1169176509729</v>
       </c>
       <c r="E17" t="n">
-        <v>446.7921124391534</v>
+        <v>371.1169176509729</v>
       </c>
       <c r="F17" t="n">
-        <v>35.80620764954586</v>
+        <v>371.1169176509729</v>
       </c>
       <c r="G17" t="n">
-        <v>35.80620764954586</v>
+        <v>371.1169176509729</v>
       </c>
       <c r="H17" t="n">
-        <v>35.80620764954586</v>
+        <v>35.80620764954585</v>
       </c>
       <c r="I17" t="n">
-        <v>35.80620764954586</v>
+        <v>35.80620764954585</v>
       </c>
       <c r="J17" t="n">
-        <v>85.65176897694454</v>
+        <v>85.65176897694448</v>
       </c>
       <c r="K17" t="n">
-        <v>281.1021485255872</v>
+        <v>281.1021485255871</v>
       </c>
       <c r="L17" t="n">
-        <v>575.8522548026945</v>
+        <v>575.852254802694</v>
       </c>
       <c r="M17" t="n">
-        <v>920.4250857743284</v>
+        <v>920.425085774328</v>
       </c>
       <c r="N17" t="n">
         <v>1255.941467845074</v>
@@ -5536,31 +5536,31 @@
         <v>1721.728799043154</v>
       </c>
       <c r="Q17" t="n">
-        <v>1790.310382477293</v>
+        <v>1790.310382477292</v>
       </c>
       <c r="R17" t="n">
-        <v>1790.310382477293</v>
+        <v>1752.316340476432</v>
       </c>
       <c r="S17" t="n">
-        <v>1790.310382477293</v>
+        <v>1558.080205362023</v>
       </c>
       <c r="T17" t="n">
-        <v>1790.310382477293</v>
+        <v>1335.976455322847</v>
       </c>
       <c r="U17" t="n">
-        <v>1790.310382477293</v>
+        <v>1082.151271527837</v>
       </c>
       <c r="V17" t="n">
-        <v>1541.989042910759</v>
+        <v>1082.151271527837</v>
       </c>
       <c r="W17" t="n">
-        <v>1189.220387640645</v>
+        <v>729.3826162577234</v>
       </c>
       <c r="X17" t="n">
-        <v>815.7546293795651</v>
+        <v>729.3826162577234</v>
       </c>
       <c r="Y17" t="n">
-        <v>815.7546293795651</v>
+        <v>729.3826162577234</v>
       </c>
     </row>
     <row r="18">
@@ -5570,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>629.5474626290861</v>
+        <v>518.4311015973797</v>
       </c>
       <c r="C18" t="n">
-        <v>455.0944333479591</v>
+        <v>343.9780723162526</v>
       </c>
       <c r="D18" t="n">
-        <v>455.0944333479591</v>
+        <v>195.0436626550014</v>
       </c>
       <c r="E18" t="n">
-        <v>295.8569783425036</v>
+        <v>35.80620764954585</v>
       </c>
       <c r="F18" t="n">
-        <v>250.7817230428276</v>
+        <v>35.80620764954585</v>
       </c>
       <c r="G18" t="n">
-        <v>112.44759558658</v>
+        <v>35.80620764954585</v>
       </c>
       <c r="H18" t="n">
-        <v>112.44759558658</v>
+        <v>35.80620764954585</v>
       </c>
       <c r="I18" t="n">
-        <v>35.80620764954586</v>
+        <v>35.80620764954585</v>
       </c>
       <c r="J18" t="n">
         <v>71.80050281686087</v>
@@ -5600,46 +5600,46 @@
         <v>259.9413294595961</v>
       </c>
       <c r="L18" t="n">
-        <v>574.3242851876668</v>
+        <v>330.2116360042979</v>
       </c>
       <c r="M18" t="n">
-        <v>993.173587676587</v>
+        <v>749.0609384932181</v>
       </c>
       <c r="N18" t="n">
         <v>1192.162758156348</v>
       </c>
       <c r="O18" t="n">
-        <v>1533.422456359901</v>
+        <v>1533.4224563599</v>
       </c>
       <c r="P18" t="n">
-        <v>1790.310382477293</v>
+        <v>1790.310382477292</v>
       </c>
       <c r="Q18" t="n">
-        <v>1790.310382477293</v>
+        <v>1790.310382477292</v>
       </c>
       <c r="R18" t="n">
-        <v>1713.770924687432</v>
+        <v>1713.770924687431</v>
       </c>
       <c r="S18" t="n">
-        <v>1547.722070775885</v>
+        <v>1547.722070775884</v>
       </c>
       <c r="T18" t="n">
-        <v>1347.134447302567</v>
+        <v>1347.134447302566</v>
       </c>
       <c r="U18" t="n">
         <v>1118.93692758903</v>
       </c>
       <c r="V18" t="n">
-        <v>883.7848193572877</v>
+        <v>883.7848193572872</v>
       </c>
       <c r="W18" t="n">
-        <v>629.5474626290861</v>
+        <v>629.5474626290857</v>
       </c>
       <c r="X18" t="n">
-        <v>629.5474626290861</v>
+        <v>518.4311015973797</v>
       </c>
       <c r="Y18" t="n">
-        <v>629.5474626290861</v>
+        <v>518.4311015973797</v>
       </c>
     </row>
     <row r="19">
@@ -5649,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>35.80620764954586</v>
+        <v>418.4022364984083</v>
       </c>
       <c r="C19" t="n">
-        <v>35.80620764954586</v>
+        <v>418.4022364984083</v>
       </c>
       <c r="D19" t="n">
-        <v>35.80620764954586</v>
+        <v>268.2855970860726</v>
       </c>
       <c r="E19" t="n">
-        <v>35.80620764954586</v>
+        <v>268.2855970860726</v>
       </c>
       <c r="F19" t="n">
-        <v>35.80620764954586</v>
+        <v>205.161487342714</v>
       </c>
       <c r="G19" t="n">
-        <v>35.80620764954586</v>
+        <v>35.80620764954585</v>
       </c>
       <c r="H19" t="n">
-        <v>35.80620764954586</v>
+        <v>35.80620764954585</v>
       </c>
       <c r="I19" t="n">
-        <v>35.80620764954586</v>
+        <v>35.80620764954585</v>
       </c>
       <c r="J19" t="n">
-        <v>35.80620764954586</v>
+        <v>35.80620764954585</v>
       </c>
       <c r="K19" t="n">
-        <v>51.63002894672893</v>
+        <v>51.63002894672892</v>
       </c>
       <c r="L19" t="n">
         <v>127.405506859091</v>
@@ -5694,31 +5694,31 @@
         <v>418.4022364984083</v>
       </c>
       <c r="Q19" t="n">
-        <v>359.2187624106496</v>
+        <v>418.4022364984083</v>
       </c>
       <c r="R19" t="n">
-        <v>195.0884559520892</v>
+        <v>418.4022364984083</v>
       </c>
       <c r="S19" t="n">
-        <v>195.0884559520892</v>
+        <v>418.4022364984083</v>
       </c>
       <c r="T19" t="n">
-        <v>195.0884559520892</v>
+        <v>418.4022364984083</v>
       </c>
       <c r="U19" t="n">
-        <v>35.80620764954586</v>
+        <v>418.4022364984083</v>
       </c>
       <c r="V19" t="n">
-        <v>35.80620764954586</v>
+        <v>418.4022364984083</v>
       </c>
       <c r="W19" t="n">
-        <v>35.80620764954586</v>
+        <v>418.4022364984083</v>
       </c>
       <c r="X19" t="n">
-        <v>35.80620764954586</v>
+        <v>418.4022364984083</v>
       </c>
       <c r="Y19" t="n">
-        <v>35.80620764954586</v>
+        <v>418.4022364984083</v>
       </c>
     </row>
     <row r="20">
@@ -5728,31 +5728,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>790.5569771882018</v>
+        <v>884.3750898244318</v>
       </c>
       <c r="C20" t="n">
-        <v>421.5944602477901</v>
+        <v>884.3750898244318</v>
       </c>
       <c r="D20" t="n">
-        <v>421.5944602477901</v>
+        <v>526.1093912176814</v>
       </c>
       <c r="E20" t="n">
-        <v>35.80620764954585</v>
+        <v>526.1093912176814</v>
       </c>
       <c r="F20" t="n">
-        <v>35.80620764954585</v>
+        <v>526.1093912176814</v>
       </c>
       <c r="G20" t="n">
-        <v>35.80620764954585</v>
+        <v>526.1093912176814</v>
       </c>
       <c r="H20" t="n">
-        <v>35.80620764954585</v>
+        <v>190.7986812162543</v>
       </c>
       <c r="I20" t="n">
         <v>35.80620764954585</v>
       </c>
       <c r="J20" t="n">
-        <v>85.65176897694451</v>
+        <v>85.65176897694448</v>
       </c>
       <c r="K20" t="n">
         <v>281.1021485255872</v>
@@ -5761,7 +5761,7 @@
         <v>575.8522548026942</v>
       </c>
       <c r="M20" t="n">
-        <v>920.4250857743283</v>
+        <v>920.4250857743282</v>
       </c>
       <c r="N20" t="n">
         <v>1255.941467845074</v>
@@ -5773,31 +5773,31 @@
         <v>1721.728799043154</v>
       </c>
       <c r="Q20" t="n">
-        <v>1790.310382477293</v>
+        <v>1790.310382477292</v>
       </c>
       <c r="R20" t="n">
-        <v>1685.501045216871</v>
+        <v>1790.310382477292</v>
       </c>
       <c r="S20" t="n">
-        <v>1685.501045216871</v>
+        <v>1790.310382477292</v>
       </c>
       <c r="T20" t="n">
-        <v>1463.397295177695</v>
+        <v>1568.206632438116</v>
       </c>
       <c r="U20" t="n">
-        <v>1209.572111382686</v>
+        <v>1568.206632438116</v>
       </c>
       <c r="V20" t="n">
-        <v>1209.572111382686</v>
+        <v>1237.143745094546</v>
       </c>
       <c r="W20" t="n">
-        <v>856.8034561125717</v>
+        <v>884.3750898244318</v>
       </c>
       <c r="X20" t="n">
-        <v>856.8034561125717</v>
+        <v>884.3750898244318</v>
       </c>
       <c r="Y20" t="n">
-        <v>790.5569771882018</v>
+        <v>884.3750898244318</v>
       </c>
     </row>
     <row r="21">
@@ -5807,40 +5807,40 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>348.5933643869205</v>
+        <v>705.4881456826492</v>
       </c>
       <c r="C21" t="n">
-        <v>174.1403351057935</v>
+        <v>705.4881456826492</v>
       </c>
       <c r="D21" t="n">
-        <v>174.1403351057935</v>
+        <v>556.553736021398</v>
       </c>
       <c r="E21" t="n">
-        <v>174.1403351057935</v>
+        <v>397.3162810159425</v>
       </c>
       <c r="F21" t="n">
-        <v>174.1403351057935</v>
+        <v>250.7817230428275</v>
       </c>
       <c r="G21" t="n">
-        <v>35.80620764954585</v>
+        <v>112.4475955865799</v>
       </c>
       <c r="H21" t="n">
-        <v>35.80620764954585</v>
+        <v>112.4475955865799</v>
       </c>
       <c r="I21" t="n">
         <v>35.80620764954585</v>
       </c>
       <c r="J21" t="n">
-        <v>35.80620764954585</v>
+        <v>71.80050281686087</v>
       </c>
       <c r="K21" t="n">
-        <v>211.1866298530062</v>
+        <v>259.9413294595961</v>
       </c>
       <c r="L21" t="n">
-        <v>211.1866298530062</v>
+        <v>574.3242851876668</v>
       </c>
       <c r="M21" t="n">
-        <v>630.0359323419265</v>
+        <v>630.0359323419264</v>
       </c>
       <c r="N21" t="n">
         <v>1073.137752005056</v>
@@ -5852,31 +5852,31 @@
         <v>1671.285376326001</v>
       </c>
       <c r="Q21" t="n">
-        <v>1790.310382477293</v>
+        <v>1790.310382477292</v>
       </c>
       <c r="R21" t="n">
-        <v>1713.770924687432</v>
+        <v>1790.310382477292</v>
       </c>
       <c r="S21" t="n">
-        <v>1547.722070775884</v>
+        <v>1624.261528565745</v>
       </c>
       <c r="T21" t="n">
-        <v>1347.134447302566</v>
+        <v>1423.673905092427</v>
       </c>
       <c r="U21" t="n">
-        <v>1118.93692758903</v>
+        <v>1195.476385378891</v>
       </c>
       <c r="V21" t="n">
-        <v>883.7848193572872</v>
+        <v>1195.476385378891</v>
       </c>
       <c r="W21" t="n">
-        <v>883.7848193572872</v>
+        <v>1121.099944653136</v>
       </c>
       <c r="X21" t="n">
-        <v>724.5690001719424</v>
+        <v>913.2484444476031</v>
       </c>
       <c r="Y21" t="n">
-        <v>516.8087014069886</v>
+        <v>705.4881456826492</v>
       </c>
     </row>
     <row r="22">
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>35.80620764954585</v>
+        <v>418.4022364984083</v>
       </c>
       <c r="C22" t="n">
-        <v>35.80620764954585</v>
+        <v>418.4022364984083</v>
       </c>
       <c r="D22" t="n">
-        <v>35.80620764954585</v>
+        <v>268.2855970860726</v>
       </c>
       <c r="E22" t="n">
-        <v>35.80620764954585</v>
+        <v>120.3725035036795</v>
       </c>
       <c r="F22" t="n">
         <v>35.80620764954585</v>
@@ -5913,7 +5913,7 @@
         <v>35.80620764954585</v>
       </c>
       <c r="K22" t="n">
-        <v>51.63002894672893</v>
+        <v>51.63002894672892</v>
       </c>
       <c r="L22" t="n">
         <v>127.405506859091</v>
@@ -5934,28 +5934,28 @@
         <v>418.4022364984083</v>
       </c>
       <c r="R22" t="n">
-        <v>254.2719300398479</v>
+        <v>418.4022364984083</v>
       </c>
       <c r="S22" t="n">
-        <v>254.2719300398479</v>
+        <v>418.4022364984083</v>
       </c>
       <c r="T22" t="n">
-        <v>254.2719300398479</v>
+        <v>418.4022364984083</v>
       </c>
       <c r="U22" t="n">
-        <v>254.2719300398479</v>
+        <v>418.4022364984083</v>
       </c>
       <c r="V22" t="n">
-        <v>254.2719300398479</v>
+        <v>418.4022364984083</v>
       </c>
       <c r="W22" t="n">
-        <v>35.80620764954585</v>
+        <v>418.4022364984083</v>
       </c>
       <c r="X22" t="n">
-        <v>35.80620764954585</v>
+        <v>418.4022364984083</v>
       </c>
       <c r="Y22" t="n">
-        <v>35.80620764954585</v>
+        <v>418.4022364984083</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>695.6424048968306</v>
+        <v>1181.790711712282</v>
       </c>
       <c r="C23" t="n">
-        <v>695.6424048968306</v>
+        <v>812.8281947718706</v>
       </c>
       <c r="D23" t="n">
-        <v>695.6424048968306</v>
+        <v>454.56249616512</v>
       </c>
       <c r="E23" t="n">
-        <v>309.8541522985864</v>
+        <v>454.56249616512</v>
       </c>
       <c r="F23" t="n">
-        <v>35.80620764954585</v>
+        <v>454.56249616512</v>
       </c>
       <c r="G23" t="n">
         <v>35.80620764954585</v>
@@ -6010,31 +6010,31 @@
         <v>1721.728799043154</v>
       </c>
       <c r="Q23" t="n">
-        <v>1790.310382477293</v>
+        <v>1790.310382477292</v>
       </c>
       <c r="R23" t="n">
-        <v>1790.310382477293</v>
+        <v>1790.310382477292</v>
       </c>
       <c r="S23" t="n">
-        <v>1790.310382477293</v>
+        <v>1790.310382477292</v>
       </c>
       <c r="T23" t="n">
-        <v>1790.310382477293</v>
+        <v>1790.310382477292</v>
       </c>
       <c r="U23" t="n">
-        <v>1790.310382477293</v>
+        <v>1790.310382477292</v>
       </c>
       <c r="V23" t="n">
-        <v>1459.247495133722</v>
+        <v>1790.310382477292</v>
       </c>
       <c r="W23" t="n">
-        <v>1459.247495133722</v>
+        <v>1437.541727207178</v>
       </c>
       <c r="X23" t="n">
-        <v>1085.781736872642</v>
+        <v>1181.790711712282</v>
       </c>
       <c r="Y23" t="n">
-        <v>695.6424048968306</v>
+        <v>1181.790711712282</v>
       </c>
     </row>
     <row r="24">
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>253.4806254034848</v>
+        <v>412.3568040233964</v>
       </c>
       <c r="C24" t="n">
-        <v>253.4806254034848</v>
+        <v>237.9037747422693</v>
       </c>
       <c r="D24" t="n">
-        <v>253.4806254034848</v>
+        <v>237.9037747422693</v>
       </c>
       <c r="E24" t="n">
-        <v>253.4806254034848</v>
+        <v>112.4475955865799</v>
       </c>
       <c r="F24" t="n">
-        <v>106.9460674303698</v>
+        <v>112.4475955865799</v>
       </c>
       <c r="G24" t="n">
-        <v>35.80620764954585</v>
+        <v>112.4475955865799</v>
       </c>
       <c r="H24" t="n">
-        <v>35.80620764954585</v>
+        <v>112.4475955865799</v>
       </c>
       <c r="I24" t="n">
         <v>35.80620764954585</v>
@@ -6077,43 +6077,43 @@
         <v>350.1891633776165</v>
       </c>
       <c r="M24" t="n">
-        <v>749.0609384932183</v>
+        <v>769.0384658665369</v>
       </c>
       <c r="N24" t="n">
-        <v>1192.162758156348</v>
+        <v>1212.140285529667</v>
       </c>
       <c r="O24" t="n">
-        <v>1533.422456359901</v>
+        <v>1553.399983733219</v>
       </c>
       <c r="P24" t="n">
-        <v>1790.310382477293</v>
+        <v>1790.310382477292</v>
       </c>
       <c r="Q24" t="n">
-        <v>1790.310382477293</v>
+        <v>1790.310382477292</v>
       </c>
       <c r="R24" t="n">
-        <v>1713.770924687432</v>
+        <v>1713.770924687431</v>
       </c>
       <c r="S24" t="n">
-        <v>1547.722070775884</v>
+        <v>1713.770924687431</v>
       </c>
       <c r="T24" t="n">
-        <v>1347.134447302566</v>
+        <v>1713.770924687431</v>
       </c>
       <c r="U24" t="n">
-        <v>1118.93692758903</v>
+        <v>1485.573404973895</v>
       </c>
       <c r="V24" t="n">
-        <v>883.7848193572872</v>
+        <v>1250.421296742153</v>
       </c>
       <c r="W24" t="n">
-        <v>629.5474626290857</v>
+        <v>996.1839400139511</v>
       </c>
       <c r="X24" t="n">
-        <v>421.6959624235528</v>
+        <v>788.3324398084183</v>
       </c>
       <c r="Y24" t="n">
-        <v>421.6959624235528</v>
+        <v>580.5721410434644</v>
       </c>
     </row>
     <row r="25">
@@ -6150,7 +6150,7 @@
         <v>35.80620764954585</v>
       </c>
       <c r="K25" t="n">
-        <v>51.63002894672893</v>
+        <v>51.63002894672892</v>
       </c>
       <c r="L25" t="n">
         <v>127.405506859091</v>
@@ -6168,22 +6168,22 @@
         <v>418.4022364984083</v>
       </c>
       <c r="Q25" t="n">
-        <v>359.2187624106496</v>
+        <v>418.4022364984083</v>
       </c>
       <c r="R25" t="n">
-        <v>359.2187624106496</v>
+        <v>418.4022364984083</v>
       </c>
       <c r="S25" t="n">
-        <v>359.2187624106496</v>
+        <v>197.9187763148745</v>
       </c>
       <c r="T25" t="n">
-        <v>130.3917084173852</v>
+        <v>197.9187763148745</v>
       </c>
       <c r="U25" t="n">
-        <v>130.3917084173852</v>
+        <v>35.80620764954585</v>
       </c>
       <c r="V25" t="n">
-        <v>130.3917084173852</v>
+        <v>35.80620764954585</v>
       </c>
       <c r="W25" t="n">
         <v>35.80620764954585</v>
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>303.5391146459014</v>
+        <v>878.5092240391151</v>
       </c>
       <c r="C26" t="n">
-        <v>35.80620764954585</v>
+        <v>509.5467070987034</v>
       </c>
       <c r="D26" t="n">
-        <v>35.80620764954585</v>
+        <v>421.5944602477901</v>
       </c>
       <c r="E26" t="n">
         <v>35.80620764954585</v>
@@ -6229,7 +6229,7 @@
         <v>85.65176897694448</v>
       </c>
       <c r="K26" t="n">
-        <v>281.1021485255872</v>
+        <v>281.1021485255871</v>
       </c>
       <c r="L26" t="n">
         <v>575.8522548026942</v>
@@ -6250,28 +6250,28 @@
         <v>1790.310382477293</v>
       </c>
       <c r="R26" t="n">
-        <v>1790.310382477293</v>
+        <v>1685.501045216871</v>
       </c>
       <c r="S26" t="n">
-        <v>1596.074247362884</v>
+        <v>1685.501045216871</v>
       </c>
       <c r="T26" t="n">
-        <v>1373.970497323708</v>
+        <v>1463.397295177695</v>
       </c>
       <c r="U26" t="n">
-        <v>1373.970497323708</v>
+        <v>1209.572111382686</v>
       </c>
       <c r="V26" t="n">
-        <v>1042.907609980137</v>
+        <v>878.5092240391151</v>
       </c>
       <c r="W26" t="n">
-        <v>690.1389547100232</v>
+        <v>878.5092240391151</v>
       </c>
       <c r="X26" t="n">
-        <v>690.1389547100232</v>
+        <v>878.5092240391151</v>
       </c>
       <c r="Y26" t="n">
-        <v>690.1389547100232</v>
+        <v>878.5092240391151</v>
       </c>
     </row>
     <row r="27">
@@ -6281,19 +6281,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>466.3316633452287</v>
+        <v>763.9032458069317</v>
       </c>
       <c r="C27" t="n">
-        <v>291.8786340641017</v>
+        <v>589.4502165258048</v>
       </c>
       <c r="D27" t="n">
-        <v>291.8786340641017</v>
+        <v>589.4502165258048</v>
       </c>
       <c r="E27" t="n">
-        <v>291.8786340641017</v>
+        <v>430.2127615203493</v>
       </c>
       <c r="F27" t="n">
-        <v>145.3440760909866</v>
+        <v>283.6782035472343</v>
       </c>
       <c r="G27" t="n">
         <v>145.3440760909866</v>
@@ -6305,25 +6305,25 @@
         <v>35.80620764954585</v>
       </c>
       <c r="J27" t="n">
-        <v>71.80050281686087</v>
+        <v>35.80620764954585</v>
       </c>
       <c r="K27" t="n">
-        <v>259.9413294595961</v>
+        <v>35.80620764954585</v>
       </c>
       <c r="L27" t="n">
-        <v>574.3242851876668</v>
+        <v>330.211636004298</v>
       </c>
       <c r="M27" t="n">
-        <v>630.0359323419265</v>
+        <v>749.0609384932183</v>
       </c>
       <c r="N27" t="n">
-        <v>1073.137752005056</v>
+        <v>1192.162758156348</v>
       </c>
       <c r="O27" t="n">
-        <v>1414.397450208609</v>
+        <v>1533.422456359901</v>
       </c>
       <c r="P27" t="n">
-        <v>1671.285376326001</v>
+        <v>1790.310382477293</v>
       </c>
       <c r="Q27" t="n">
         <v>1790.310382477293</v>
@@ -6335,22 +6335,22 @@
         <v>1547.722070775884</v>
       </c>
       <c r="T27" t="n">
-        <v>1347.134447302566</v>
+        <v>1414.667153009161</v>
       </c>
       <c r="U27" t="n">
-        <v>1347.134447302566</v>
+        <v>1414.667153009161</v>
       </c>
       <c r="V27" t="n">
-        <v>1111.982339070823</v>
+        <v>1179.515044777419</v>
       </c>
       <c r="W27" t="n">
-        <v>881.9434623157154</v>
+        <v>1179.515044777419</v>
       </c>
       <c r="X27" t="n">
-        <v>674.0919621101825</v>
+        <v>971.6635445718857</v>
       </c>
       <c r="Y27" t="n">
-        <v>466.3316633452287</v>
+        <v>763.9032458069317</v>
       </c>
     </row>
     <row r="28">
@@ -6387,7 +6387,7 @@
         <v>35.80620764954585</v>
       </c>
       <c r="K28" t="n">
-        <v>51.63002894672893</v>
+        <v>51.63002894672892</v>
       </c>
       <c r="L28" t="n">
         <v>127.405506859091</v>
@@ -6408,19 +6408,19 @@
         <v>418.4022364984083</v>
       </c>
       <c r="R28" t="n">
-        <v>254.2719300398479</v>
+        <v>418.4022364984083</v>
       </c>
       <c r="S28" t="n">
-        <v>35.80620764954585</v>
+        <v>418.4022364984083</v>
       </c>
       <c r="T28" t="n">
-        <v>35.80620764954585</v>
+        <v>325.2233776865065</v>
       </c>
       <c r="U28" t="n">
-        <v>35.80620764954585</v>
+        <v>325.2233776865065</v>
       </c>
       <c r="V28" t="n">
-        <v>35.80620764954585</v>
+        <v>325.2233776865065</v>
       </c>
       <c r="W28" t="n">
         <v>35.80620764954585</v>
@@ -6439,40 +6439,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>974.5750543446334</v>
+        <v>1342.85380026339</v>
       </c>
       <c r="C29" t="n">
-        <v>605.6125374042217</v>
+        <v>973.8912833229787</v>
       </c>
       <c r="D29" t="n">
-        <v>605.6125374042217</v>
+        <v>973.8912833229787</v>
       </c>
       <c r="E29" t="n">
-        <v>219.8242848059774</v>
+        <v>973.8912833229787</v>
       </c>
       <c r="F29" t="n">
-        <v>219.8242848059774</v>
+        <v>973.8912833229787</v>
       </c>
       <c r="G29" t="n">
-        <v>219.8242848059774</v>
+        <v>555.1349948074045</v>
       </c>
       <c r="H29" t="n">
         <v>219.8242848059774</v>
       </c>
       <c r="I29" t="n">
-        <v>35.80620764954586</v>
+        <v>35.80620764954585</v>
       </c>
       <c r="J29" t="n">
-        <v>85.65176897694454</v>
+        <v>85.65176897694448</v>
       </c>
       <c r="K29" t="n">
-        <v>281.1021485255872</v>
+        <v>281.1021485255871</v>
       </c>
       <c r="L29" t="n">
-        <v>575.8522548026945</v>
+        <v>575.8522548026942</v>
       </c>
       <c r="M29" t="n">
-        <v>920.4250857743284</v>
+        <v>920.4250857743282</v>
       </c>
       <c r="N29" t="n">
         <v>1255.941467845074</v>
@@ -6487,28 +6487,28 @@
         <v>1790.310382477293</v>
       </c>
       <c r="R29" t="n">
-        <v>1685.501045216871</v>
+        <v>1790.310382477293</v>
       </c>
       <c r="S29" t="n">
-        <v>1685.501045216871</v>
+        <v>1790.310382477293</v>
       </c>
       <c r="T29" t="n">
-        <v>1463.397295177695</v>
+        <v>1790.310382477293</v>
       </c>
       <c r="U29" t="n">
-        <v>1361.174894408755</v>
+        <v>1790.310382477293</v>
       </c>
       <c r="V29" t="n">
-        <v>1361.174894408755</v>
+        <v>1790.310382477293</v>
       </c>
       <c r="W29" t="n">
-        <v>1361.174894408755</v>
+        <v>1729.453640327512</v>
       </c>
       <c r="X29" t="n">
-        <v>1361.174894408755</v>
+        <v>1729.453640327512</v>
       </c>
       <c r="Y29" t="n">
-        <v>1361.174894408755</v>
+        <v>1729.453640327512</v>
       </c>
     </row>
     <row r="30">
@@ -6518,43 +6518,43 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>253.5718268440642</v>
+        <v>359.1936465919241</v>
       </c>
       <c r="C30" t="n">
-        <v>79.11879756293715</v>
+        <v>184.7406173107971</v>
       </c>
       <c r="D30" t="n">
-        <v>79.11879756293715</v>
+        <v>35.80620764954585</v>
       </c>
       <c r="E30" t="n">
-        <v>79.11879756293715</v>
+        <v>35.80620764954585</v>
       </c>
       <c r="F30" t="n">
-        <v>79.11879756293715</v>
+        <v>35.80620764954585</v>
       </c>
       <c r="G30" t="n">
-        <v>79.11879756293715</v>
+        <v>35.80620764954585</v>
       </c>
       <c r="H30" t="n">
-        <v>79.11879756293715</v>
+        <v>35.80620764954585</v>
       </c>
       <c r="I30" t="n">
-        <v>35.80620764954586</v>
+        <v>35.80620764954585</v>
       </c>
       <c r="J30" t="n">
-        <v>71.80050281686087</v>
+        <v>35.80620764954585</v>
       </c>
       <c r="K30" t="n">
-        <v>259.9413294595961</v>
+        <v>223.9470342922811</v>
       </c>
       <c r="L30" t="n">
-        <v>574.3242851876668</v>
+        <v>538.3299900203517</v>
       </c>
       <c r="M30" t="n">
-        <v>993.173587676587</v>
+        <v>957.179292509272</v>
       </c>
       <c r="N30" t="n">
-        <v>1073.137752005057</v>
+        <v>1073.137752005056</v>
       </c>
       <c r="O30" t="n">
         <v>1414.397450208609</v>
@@ -6566,28 +6566,28 @@
         <v>1790.310382477293</v>
       </c>
       <c r="R30" t="n">
-        <v>1713.770924687432</v>
+        <v>1790.310382477293</v>
       </c>
       <c r="S30" t="n">
-        <v>1547.722070775885</v>
+        <v>1632.997871015741</v>
       </c>
       <c r="T30" t="n">
-        <v>1347.134447302567</v>
+        <v>1432.410247542423</v>
       </c>
       <c r="U30" t="n">
-        <v>1118.93692758903</v>
+        <v>1432.410247542423</v>
       </c>
       <c r="V30" t="n">
-        <v>883.7848193572877</v>
+        <v>1197.25813931068</v>
       </c>
       <c r="W30" t="n">
-        <v>629.5474626290861</v>
+        <v>943.0207825824789</v>
       </c>
       <c r="X30" t="n">
-        <v>629.5474626290861</v>
+        <v>735.1692823769461</v>
       </c>
       <c r="Y30" t="n">
-        <v>421.7871638641322</v>
+        <v>527.4089836119922</v>
       </c>
     </row>
     <row r="31">
@@ -6597,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>35.80620764954586</v>
+        <v>35.80620764954585</v>
       </c>
       <c r="C31" t="n">
-        <v>35.80620764954586</v>
+        <v>35.80620764954585</v>
       </c>
       <c r="D31" t="n">
-        <v>35.80620764954586</v>
+        <v>35.80620764954585</v>
       </c>
       <c r="E31" t="n">
-        <v>35.80620764954586</v>
+        <v>35.80620764954585</v>
       </c>
       <c r="F31" t="n">
-        <v>35.80620764954586</v>
+        <v>35.80620764954585</v>
       </c>
       <c r="G31" t="n">
-        <v>35.80620764954586</v>
+        <v>35.80620764954585</v>
       </c>
       <c r="H31" t="n">
-        <v>35.80620764954586</v>
+        <v>35.80620764954585</v>
       </c>
       <c r="I31" t="n">
-        <v>35.80620764954586</v>
+        <v>35.80620764954585</v>
       </c>
       <c r="J31" t="n">
-        <v>35.80620764954586</v>
+        <v>35.80620764954585</v>
       </c>
       <c r="K31" t="n">
-        <v>51.63002894672893</v>
+        <v>51.63002894672892</v>
       </c>
       <c r="L31" t="n">
         <v>127.405506859091</v>
@@ -6648,25 +6648,25 @@
         <v>418.4022364984083</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9187763148745</v>
+        <v>418.4022364984083</v>
       </c>
       <c r="T31" t="n">
-        <v>35.80620764954586</v>
+        <v>290.4906958554327</v>
       </c>
       <c r="U31" t="n">
-        <v>35.80620764954586</v>
+        <v>290.4906958554327</v>
       </c>
       <c r="V31" t="n">
-        <v>35.80620764954586</v>
+        <v>35.80620764954585</v>
       </c>
       <c r="W31" t="n">
-        <v>35.80620764954586</v>
+        <v>35.80620764954585</v>
       </c>
       <c r="X31" t="n">
-        <v>35.80620764954586</v>
+        <v>35.80620764954585</v>
       </c>
       <c r="Y31" t="n">
-        <v>35.80620764954586</v>
+        <v>35.80620764954585</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>588.7868017463892</v>
+        <v>1790.310382477293</v>
       </c>
       <c r="C32" t="n">
-        <v>219.8242848059774</v>
+        <v>1421.347865536881</v>
       </c>
       <c r="D32" t="n">
-        <v>219.8242848059774</v>
+        <v>1063.082166930131</v>
       </c>
       <c r="E32" t="n">
-        <v>219.8242848059774</v>
+        <v>677.2939143318865</v>
       </c>
       <c r="F32" t="n">
-        <v>219.8242848059774</v>
+        <v>266.308009542279</v>
       </c>
       <c r="G32" t="n">
         <v>219.8242848059774</v>
@@ -6700,19 +6700,19 @@
         <v>35.80620764954586</v>
       </c>
       <c r="J32" t="n">
-        <v>85.65176897694482</v>
+        <v>85.65176897694471</v>
       </c>
       <c r="K32" t="n">
-        <v>281.1021485255876</v>
+        <v>281.1021485255874</v>
       </c>
       <c r="L32" t="n">
-        <v>575.8522548026947</v>
+        <v>575.8522548026946</v>
       </c>
       <c r="M32" t="n">
-        <v>920.4250857743287</v>
+        <v>920.4250857743284</v>
       </c>
       <c r="N32" t="n">
-        <v>1255.941467845075</v>
+        <v>1255.941467845074</v>
       </c>
       <c r="O32" t="n">
         <v>1527.572435479364</v>
@@ -6727,25 +6727,25 @@
         <v>1790.310382477293</v>
       </c>
       <c r="S32" t="n">
-        <v>1596.074247362884</v>
+        <v>1790.310382477293</v>
       </c>
       <c r="T32" t="n">
-        <v>1373.970497323708</v>
+        <v>1790.310382477293</v>
       </c>
       <c r="U32" t="n">
-        <v>1373.970497323708</v>
+        <v>1790.310382477293</v>
       </c>
       <c r="V32" t="n">
-        <v>1373.970497323708</v>
+        <v>1790.310382477293</v>
       </c>
       <c r="W32" t="n">
-        <v>1021.201842053594</v>
+        <v>1790.310382477293</v>
       </c>
       <c r="X32" t="n">
-        <v>647.7360837925144</v>
+        <v>1790.310382477293</v>
       </c>
       <c r="Y32" t="n">
-        <v>588.7868017463892</v>
+        <v>1790.310382477293</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>421.7871638641322</v>
+        <v>286.9006248677069</v>
       </c>
       <c r="C33" t="n">
-        <v>247.3341345830052</v>
+        <v>112.44759558658</v>
       </c>
       <c r="D33" t="n">
-        <v>182.3407656226609</v>
+        <v>112.44759558658</v>
       </c>
       <c r="E33" t="n">
-        <v>182.3407656226609</v>
+        <v>112.44759558658</v>
       </c>
       <c r="F33" t="n">
-        <v>35.80620764954586</v>
+        <v>112.44759558658</v>
       </c>
       <c r="G33" t="n">
-        <v>35.80620764954586</v>
+        <v>112.44759558658</v>
       </c>
       <c r="H33" t="n">
-        <v>35.80620764954586</v>
+        <v>112.44759558658</v>
       </c>
       <c r="I33" t="n">
         <v>35.80620764954586</v>
       </c>
       <c r="J33" t="n">
-        <v>71.80050281686087</v>
+        <v>35.80620764954586</v>
       </c>
       <c r="K33" t="n">
-        <v>259.9413294595961</v>
+        <v>223.9470342922811</v>
       </c>
       <c r="L33" t="n">
-        <v>574.3242851876668</v>
+        <v>538.3299900203517</v>
       </c>
       <c r="M33" t="n">
-        <v>993.173587676587</v>
+        <v>749.0609384932184</v>
       </c>
       <c r="N33" t="n">
-        <v>1073.137752005057</v>
+        <v>1192.162758156348</v>
       </c>
       <c r="O33" t="n">
-        <v>1414.397450208609</v>
+        <v>1533.422456359901</v>
       </c>
       <c r="P33" t="n">
-        <v>1671.285376326001</v>
+        <v>1790.310382477293</v>
       </c>
       <c r="Q33" t="n">
         <v>1790.310382477293</v>
       </c>
       <c r="R33" t="n">
-        <v>1713.770924687432</v>
+        <v>1790.310382477293</v>
       </c>
       <c r="S33" t="n">
-        <v>1547.722070775885</v>
+        <v>1624.261528565746</v>
       </c>
       <c r="T33" t="n">
-        <v>1347.134447302567</v>
+        <v>1423.673905092428</v>
       </c>
       <c r="U33" t="n">
-        <v>1118.93692758903</v>
+        <v>1195.476385378891</v>
       </c>
       <c r="V33" t="n">
-        <v>883.7848193572877</v>
+        <v>960.3242771471487</v>
       </c>
       <c r="W33" t="n">
-        <v>629.5474626290861</v>
+        <v>706.0869204189471</v>
       </c>
       <c r="X33" t="n">
-        <v>629.5474626290861</v>
+        <v>498.2354202134143</v>
       </c>
       <c r="Y33" t="n">
-        <v>421.7871638641322</v>
+        <v>290.4751214484604</v>
       </c>
     </row>
     <row r="34">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>35.80620764954586</v>
+        <v>197.6096573548782</v>
       </c>
       <c r="C34" t="n">
-        <v>35.80620764954586</v>
+        <v>197.6096573548782</v>
       </c>
       <c r="D34" t="n">
-        <v>35.80620764954586</v>
+        <v>197.6096573548782</v>
       </c>
       <c r="E34" t="n">
-        <v>35.80620764954586</v>
+        <v>49.69656377248506</v>
       </c>
       <c r="F34" t="n">
-        <v>35.80620764954586</v>
+        <v>49.69656377248506</v>
       </c>
       <c r="G34" t="n">
-        <v>35.80620764954586</v>
+        <v>49.69656377248506</v>
       </c>
       <c r="H34" t="n">
-        <v>35.80620764954586</v>
+        <v>49.69656377248506</v>
       </c>
       <c r="I34" t="n">
         <v>35.80620764954586</v>
@@ -6879,31 +6879,31 @@
         <v>418.4022364984083</v>
       </c>
       <c r="Q34" t="n">
-        <v>359.2187624106496</v>
+        <v>418.4022364984083</v>
       </c>
       <c r="R34" t="n">
-        <v>195.0884559520892</v>
+        <v>418.4022364984083</v>
       </c>
       <c r="S34" t="n">
-        <v>195.0884559520892</v>
+        <v>418.4022364984083</v>
       </c>
       <c r="T34" t="n">
-        <v>35.80620764954586</v>
+        <v>418.4022364984083</v>
       </c>
       <c r="U34" t="n">
-        <v>35.80620764954586</v>
+        <v>418.4022364984083</v>
       </c>
       <c r="V34" t="n">
-        <v>35.80620764954586</v>
+        <v>418.4022364984083</v>
       </c>
       <c r="W34" t="n">
-        <v>35.80620764954586</v>
+        <v>418.4022364984083</v>
       </c>
       <c r="X34" t="n">
-        <v>35.80620764954586</v>
+        <v>418.4022364984083</v>
       </c>
       <c r="Y34" t="n">
-        <v>35.80620764954586</v>
+        <v>197.6096573548782</v>
       </c>
     </row>
     <row r="35">
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>758.8686495730449</v>
+        <v>763.0344231967081</v>
       </c>
       <c r="C35" t="n">
-        <v>756.9051702492172</v>
+        <v>394.0719062562964</v>
       </c>
       <c r="D35" t="n">
-        <v>756.9051702492172</v>
+        <v>35.80620764954585</v>
       </c>
       <c r="E35" t="n">
-        <v>371.1169176509729</v>
+        <v>35.80620764954585</v>
       </c>
       <c r="F35" t="n">
-        <v>371.1169176509729</v>
+        <v>35.80620764954585</v>
       </c>
       <c r="G35" t="n">
-        <v>371.1169176509729</v>
+        <v>35.80620764954585</v>
       </c>
       <c r="H35" t="n">
-        <v>35.80620764954586</v>
+        <v>35.80620764954585</v>
       </c>
       <c r="I35" t="n">
-        <v>35.80620764954586</v>
+        <v>35.80620764954585</v>
       </c>
       <c r="J35" t="n">
-        <v>85.65176897694437</v>
+        <v>85.65176897694448</v>
       </c>
       <c r="K35" t="n">
-        <v>281.102148525587</v>
+        <v>281.1021485255872</v>
       </c>
       <c r="L35" t="n">
-        <v>575.8522548026941</v>
+        <v>575.8522548026942</v>
       </c>
       <c r="M35" t="n">
         <v>920.4250857743282</v>
@@ -6967,22 +6967,22 @@
         <v>1685.501045216871</v>
       </c>
       <c r="T35" t="n">
-        <v>1463.397295177695</v>
+        <v>1685.501045216871</v>
       </c>
       <c r="U35" t="n">
-        <v>1463.397295177695</v>
+        <v>1489.268836727902</v>
       </c>
       <c r="V35" t="n">
-        <v>1132.334407834125</v>
+        <v>1489.268836727902</v>
       </c>
       <c r="W35" t="n">
-        <v>1132.334407834125</v>
+        <v>1136.500181457788</v>
       </c>
       <c r="X35" t="n">
-        <v>758.8686495730449</v>
+        <v>763.0344231967081</v>
       </c>
       <c r="Y35" t="n">
-        <v>758.8686495730449</v>
+        <v>763.0344231967081</v>
       </c>
     </row>
     <row r="36">
@@ -6992,49 +6992,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>461.3321256090181</v>
+        <v>683.7070304266466</v>
       </c>
       <c r="C36" t="n">
-        <v>370.919873689272</v>
+        <v>509.2540011455196</v>
       </c>
       <c r="D36" t="n">
-        <v>221.9854640280207</v>
+        <v>360.3195914842683</v>
       </c>
       <c r="E36" t="n">
-        <v>221.9854640280207</v>
+        <v>360.3195914842683</v>
       </c>
       <c r="F36" t="n">
-        <v>221.9854640280207</v>
+        <v>360.3195914842683</v>
       </c>
       <c r="G36" t="n">
         <v>221.9854640280207</v>
       </c>
       <c r="H36" t="n">
-        <v>112.44759558658</v>
+        <v>112.4475955865799</v>
       </c>
       <c r="I36" t="n">
-        <v>35.80620764954586</v>
+        <v>35.80620764954585</v>
       </c>
       <c r="J36" t="n">
-        <v>71.80050281686088</v>
+        <v>35.80620764954585</v>
       </c>
       <c r="K36" t="n">
-        <v>259.9413294595961</v>
+        <v>223.9470342922811</v>
       </c>
       <c r="L36" t="n">
-        <v>574.3242851876668</v>
+        <v>538.3299900203517</v>
       </c>
       <c r="M36" t="n">
-        <v>886.9238584593186</v>
+        <v>957.179292509272</v>
       </c>
       <c r="N36" t="n">
-        <v>1330.025678122449</v>
+        <v>1192.162758156348</v>
       </c>
       <c r="O36" t="n">
-        <v>1671.285376326001</v>
+        <v>1533.422456359901</v>
       </c>
       <c r="P36" t="n">
-        <v>1671.285376326001</v>
+        <v>1790.310382477293</v>
       </c>
       <c r="Q36" t="n">
         <v>1790.310382477293</v>
@@ -7043,25 +7043,25 @@
         <v>1713.770924687432</v>
       </c>
       <c r="S36" t="n">
-        <v>1547.722070775885</v>
+        <v>1547.722070775884</v>
       </c>
       <c r="T36" t="n">
-        <v>1347.134447302567</v>
+        <v>1347.134447302566</v>
       </c>
       <c r="U36" t="n">
-        <v>1118.93692758903</v>
+        <v>1145.704685919802</v>
       </c>
       <c r="V36" t="n">
-        <v>883.7848193572877</v>
+        <v>1145.704685919802</v>
       </c>
       <c r="W36" t="n">
-        <v>629.5474626290861</v>
+        <v>891.4673291916006</v>
       </c>
       <c r="X36" t="n">
-        <v>629.5474626290861</v>
+        <v>891.4673291916006</v>
       </c>
       <c r="Y36" t="n">
-        <v>629.5474626290861</v>
+        <v>683.7070304266466</v>
       </c>
     </row>
     <row r="37">
@@ -7071,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>35.80620764954586</v>
+        <v>185.9228470618816</v>
       </c>
       <c r="C37" t="n">
-        <v>35.80620764954586</v>
+        <v>185.9228470618816</v>
       </c>
       <c r="D37" t="n">
-        <v>35.80620764954586</v>
+        <v>35.80620764954585</v>
       </c>
       <c r="E37" t="n">
-        <v>35.80620764954586</v>
+        <v>35.80620764954585</v>
       </c>
       <c r="F37" t="n">
-        <v>35.80620764954586</v>
+        <v>35.80620764954585</v>
       </c>
       <c r="G37" t="n">
-        <v>35.80620764954586</v>
+        <v>35.80620764954585</v>
       </c>
       <c r="H37" t="n">
-        <v>35.80620764954586</v>
+        <v>35.80620764954585</v>
       </c>
       <c r="I37" t="n">
-        <v>35.80620764954586</v>
+        <v>35.80620764954585</v>
       </c>
       <c r="J37" t="n">
-        <v>35.80620764954586</v>
+        <v>35.80620764954585</v>
       </c>
       <c r="K37" t="n">
         <v>51.63002894672893</v>
@@ -7131,16 +7131,16 @@
         <v>418.4022364984083</v>
       </c>
       <c r="V37" t="n">
-        <v>163.7177482925215</v>
+        <v>367.5713118921213</v>
       </c>
       <c r="W37" t="n">
-        <v>35.80620764954586</v>
+        <v>367.5713118921213</v>
       </c>
       <c r="X37" t="n">
-        <v>35.80620764954586</v>
+        <v>367.5713118921213</v>
       </c>
       <c r="Y37" t="n">
-        <v>35.80620764954586</v>
+        <v>367.5713118921213</v>
       </c>
     </row>
     <row r="38">
@@ -7150,31 +7150,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>925.4354468916697</v>
+        <v>756.9051702492172</v>
       </c>
       <c r="C38" t="n">
-        <v>925.4354468916697</v>
+        <v>756.9051702492172</v>
       </c>
       <c r="D38" t="n">
-        <v>925.4354468916697</v>
+        <v>756.9051702492172</v>
       </c>
       <c r="E38" t="n">
-        <v>789.8732061665471</v>
+        <v>371.1169176509729</v>
       </c>
       <c r="F38" t="n">
-        <v>789.8732061665471</v>
+        <v>371.1169176509729</v>
       </c>
       <c r="G38" t="n">
         <v>371.1169176509729</v>
       </c>
       <c r="H38" t="n">
-        <v>35.80620764954586</v>
+        <v>35.80620764954585</v>
       </c>
       <c r="I38" t="n">
-        <v>35.80620764954586</v>
+        <v>35.80620764954585</v>
       </c>
       <c r="J38" t="n">
-        <v>85.65176897694454</v>
+        <v>85.6517689769446</v>
       </c>
       <c r="K38" t="n">
         <v>281.1021485255872</v>
@@ -7201,25 +7201,25 @@
         <v>1685.501045216871</v>
       </c>
       <c r="S38" t="n">
-        <v>1685.501045216871</v>
+        <v>1491.264910102462</v>
       </c>
       <c r="T38" t="n">
-        <v>1685.501045216871</v>
+        <v>1269.161160063286</v>
       </c>
       <c r="U38" t="n">
-        <v>1685.501045216871</v>
+        <v>1269.161160063286</v>
       </c>
       <c r="V38" t="n">
-        <v>1685.501045216871</v>
+        <v>1269.161160063286</v>
       </c>
       <c r="W38" t="n">
-        <v>1685.501045216871</v>
+        <v>1269.161160063286</v>
       </c>
       <c r="X38" t="n">
-        <v>1312.035286955791</v>
+        <v>895.6954018022063</v>
       </c>
       <c r="Y38" t="n">
-        <v>1312.035286955791</v>
+        <v>895.6954018022063</v>
       </c>
     </row>
     <row r="39">
@@ -7229,49 +7229,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>664.9656595704946</v>
+        <v>851.1449159489695</v>
       </c>
       <c r="C39" t="n">
-        <v>490.5126302893676</v>
+        <v>676.6918866678425</v>
       </c>
       <c r="D39" t="n">
-        <v>341.5782206281164</v>
+        <v>527.7574770065912</v>
       </c>
       <c r="E39" t="n">
-        <v>182.3407656226609</v>
+        <v>368.5200220011357</v>
       </c>
       <c r="F39" t="n">
-        <v>35.80620764954586</v>
+        <v>221.9854640280207</v>
       </c>
       <c r="G39" t="n">
-        <v>35.80620764954586</v>
+        <v>221.9854640280207</v>
       </c>
       <c r="H39" t="n">
-        <v>35.80620764954586</v>
+        <v>112.4475955865799</v>
       </c>
       <c r="I39" t="n">
-        <v>35.80620764954586</v>
+        <v>35.80620764954585</v>
       </c>
       <c r="J39" t="n">
-        <v>35.80620764954586</v>
+        <v>35.80620764954585</v>
       </c>
       <c r="K39" t="n">
-        <v>35.80620764954586</v>
+        <v>223.9470342922811</v>
       </c>
       <c r="L39" t="n">
-        <v>350.1891633776165</v>
+        <v>538.3299900203517</v>
       </c>
       <c r="M39" t="n">
-        <v>630.0359323419266</v>
+        <v>749.0609384932183</v>
       </c>
       <c r="N39" t="n">
-        <v>1073.137752005057</v>
+        <v>1192.162758156348</v>
       </c>
       <c r="O39" t="n">
-        <v>1414.397450208609</v>
+        <v>1533.422456359901</v>
       </c>
       <c r="P39" t="n">
-        <v>1671.285376326001</v>
+        <v>1790.310382477293</v>
       </c>
       <c r="Q39" t="n">
         <v>1790.310382477293</v>
@@ -7280,25 +7280,25 @@
         <v>1713.770924687432</v>
       </c>
       <c r="S39" t="n">
-        <v>1547.722070775885</v>
+        <v>1547.722070775884</v>
       </c>
       <c r="T39" t="n">
-        <v>1347.134447302567</v>
+        <v>1462.363861406313</v>
       </c>
       <c r="U39" t="n">
-        <v>1334.814815269183</v>
+        <v>1462.363861406313</v>
       </c>
       <c r="V39" t="n">
-        <v>1334.814815269183</v>
+        <v>1227.21175317457</v>
       </c>
       <c r="W39" t="n">
-        <v>1080.577458540981</v>
+        <v>1227.21175317457</v>
       </c>
       <c r="X39" t="n">
-        <v>872.7259583354485</v>
+        <v>1019.360252969037</v>
       </c>
       <c r="Y39" t="n">
-        <v>664.9656595704946</v>
+        <v>1019.360252969037</v>
       </c>
     </row>
     <row r="40">
@@ -7308,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>35.80620764954586</v>
+        <v>35.80620764954585</v>
       </c>
       <c r="C40" t="n">
-        <v>35.80620764954586</v>
+        <v>35.80620764954585</v>
       </c>
       <c r="D40" t="n">
-        <v>35.80620764954586</v>
+        <v>35.80620764954585</v>
       </c>
       <c r="E40" t="n">
-        <v>35.80620764954586</v>
+        <v>35.80620764954585</v>
       </c>
       <c r="F40" t="n">
-        <v>35.80620764954586</v>
+        <v>35.80620764954585</v>
       </c>
       <c r="G40" t="n">
-        <v>35.80620764954586</v>
+        <v>35.80620764954585</v>
       </c>
       <c r="H40" t="n">
-        <v>35.80620764954586</v>
+        <v>35.80620764954585</v>
       </c>
       <c r="I40" t="n">
-        <v>35.80620764954586</v>
+        <v>35.80620764954585</v>
       </c>
       <c r="J40" t="n">
-        <v>35.80620764954586</v>
+        <v>35.80620764954585</v>
       </c>
       <c r="K40" t="n">
         <v>51.63002894672893</v>
@@ -7353,31 +7353,31 @@
         <v>418.4022364984083</v>
       </c>
       <c r="Q40" t="n">
-        <v>359.2187624106496</v>
+        <v>418.4022364984083</v>
       </c>
       <c r="R40" t="n">
-        <v>195.0884559520892</v>
+        <v>254.2719300398479</v>
       </c>
       <c r="S40" t="n">
-        <v>195.0884559520892</v>
+        <v>35.80620764954585</v>
       </c>
       <c r="T40" t="n">
-        <v>35.80620764954586</v>
+        <v>35.80620764954585</v>
       </c>
       <c r="U40" t="n">
-        <v>35.80620764954586</v>
+        <v>35.80620764954585</v>
       </c>
       <c r="V40" t="n">
-        <v>35.80620764954586</v>
+        <v>35.80620764954585</v>
       </c>
       <c r="W40" t="n">
-        <v>35.80620764954586</v>
+        <v>35.80620764954585</v>
       </c>
       <c r="X40" t="n">
-        <v>35.80620764954586</v>
+        <v>35.80620764954585</v>
       </c>
       <c r="Y40" t="n">
-        <v>35.80620764954586</v>
+        <v>35.80620764954585</v>
       </c>
     </row>
     <row r="41">
@@ -7387,31 +7387,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>578.089983412728</v>
+        <v>865.5484009547276</v>
       </c>
       <c r="C41" t="n">
-        <v>578.089983412728</v>
+        <v>865.5484009547276</v>
       </c>
       <c r="D41" t="n">
-        <v>219.8242848059774</v>
+        <v>865.5484009547276</v>
       </c>
       <c r="E41" t="n">
-        <v>219.8242848059774</v>
+        <v>865.5484009547276</v>
       </c>
       <c r="F41" t="n">
-        <v>219.8242848059774</v>
+        <v>454.56249616512</v>
       </c>
       <c r="G41" t="n">
-        <v>219.8242848059774</v>
+        <v>35.80620764954585</v>
       </c>
       <c r="H41" t="n">
-        <v>219.8242848059774</v>
+        <v>35.80620764954585</v>
       </c>
       <c r="I41" t="n">
-        <v>35.80620764954586</v>
+        <v>35.80620764954585</v>
       </c>
       <c r="J41" t="n">
-        <v>85.65176897694454</v>
+        <v>85.6517689769446</v>
       </c>
       <c r="K41" t="n">
         <v>281.1021485255872</v>
@@ -7420,7 +7420,7 @@
         <v>575.8522548026942</v>
       </c>
       <c r="M41" t="n">
-        <v>920.4250857743285</v>
+        <v>920.4250857743283</v>
       </c>
       <c r="N41" t="n">
         <v>1255.941467845074</v>
@@ -7435,28 +7435,28 @@
         <v>1790.310382477293</v>
       </c>
       <c r="R41" t="n">
-        <v>1790.310382477293</v>
+        <v>1685.501045216871</v>
       </c>
       <c r="S41" t="n">
-        <v>1790.310382477293</v>
+        <v>1491.264910102462</v>
       </c>
       <c r="T41" t="n">
-        <v>1690.924237008044</v>
+        <v>1491.264910102462</v>
       </c>
       <c r="U41" t="n">
-        <v>1690.924237008044</v>
+        <v>1255.687732930539</v>
       </c>
       <c r="V41" t="n">
-        <v>1690.924237008044</v>
+        <v>1255.687732930539</v>
       </c>
       <c r="W41" t="n">
-        <v>1338.15558173793</v>
+        <v>1255.687732930539</v>
       </c>
       <c r="X41" t="n">
-        <v>964.6898234768498</v>
+        <v>1255.687732930539</v>
       </c>
       <c r="Y41" t="n">
-        <v>964.6898234768498</v>
+        <v>865.5484009547276</v>
       </c>
     </row>
     <row r="42">
@@ -7466,46 +7466,46 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>738.384626187056</v>
+        <v>763.3073113120113</v>
       </c>
       <c r="C42" t="n">
-        <v>738.384626187056</v>
+        <v>588.8542820308843</v>
       </c>
       <c r="D42" t="n">
-        <v>589.4502165258048</v>
+        <v>439.919872369633</v>
       </c>
       <c r="E42" t="n">
-        <v>430.2127615203493</v>
+        <v>280.6824173641775</v>
       </c>
       <c r="F42" t="n">
-        <v>283.6782035472343</v>
+        <v>134.1478593910625</v>
       </c>
       <c r="G42" t="n">
-        <v>145.3440760909866</v>
+        <v>35.80620764954585</v>
       </c>
       <c r="H42" t="n">
-        <v>35.80620764954586</v>
+        <v>35.80620764954585</v>
       </c>
       <c r="I42" t="n">
-        <v>35.80620764954586</v>
+        <v>35.80620764954585</v>
       </c>
       <c r="J42" t="n">
-        <v>71.80050281686088</v>
+        <v>71.80050281686087</v>
       </c>
       <c r="K42" t="n">
         <v>259.9413294595961</v>
       </c>
       <c r="L42" t="n">
-        <v>330.2116360042981</v>
+        <v>574.3242851876668</v>
       </c>
       <c r="M42" t="n">
-        <v>749.0609384932184</v>
+        <v>993.173587676587</v>
       </c>
       <c r="N42" t="n">
-        <v>1192.162758156348</v>
+        <v>1436.275407339717</v>
       </c>
       <c r="O42" t="n">
-        <v>1533.422456359901</v>
+        <v>1777.535105543269</v>
       </c>
       <c r="P42" t="n">
         <v>1790.310382477293</v>
@@ -7514,28 +7514,28 @@
         <v>1790.310382477293</v>
       </c>
       <c r="R42" t="n">
-        <v>1790.310382477293</v>
+        <v>1713.770924687432</v>
       </c>
       <c r="S42" t="n">
-        <v>1624.261528565746</v>
+        <v>1547.722070775884</v>
       </c>
       <c r="T42" t="n">
-        <v>1423.673905092428</v>
+        <v>1347.134447302566</v>
       </c>
       <c r="U42" t="n">
-        <v>1195.476385378891</v>
+        <v>1347.134447302566</v>
       </c>
       <c r="V42" t="n">
-        <v>960.3242771471487</v>
+        <v>1347.134447302566</v>
       </c>
       <c r="W42" t="n">
-        <v>960.3242771471487</v>
+        <v>1347.134447302566</v>
       </c>
       <c r="X42" t="n">
-        <v>752.4727769416158</v>
+        <v>1139.282947097033</v>
       </c>
       <c r="Y42" t="n">
-        <v>738.384626187056</v>
+        <v>931.5226483320794</v>
       </c>
     </row>
     <row r="43">
@@ -7545,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>129.2092363658035</v>
+        <v>418.4022364984083</v>
       </c>
       <c r="C43" t="n">
-        <v>129.2092363658035</v>
+        <v>249.4660535705014</v>
       </c>
       <c r="D43" t="n">
-        <v>129.2092363658035</v>
+        <v>99.3494141581657</v>
       </c>
       <c r="E43" t="n">
-        <v>129.2092363658035</v>
+        <v>99.3494141581657</v>
       </c>
       <c r="F43" t="n">
-        <v>129.2092363658035</v>
+        <v>99.3494141581657</v>
       </c>
       <c r="G43" t="n">
-        <v>35.80620764954586</v>
+        <v>35.80620764954585</v>
       </c>
       <c r="H43" t="n">
-        <v>35.80620764954586</v>
+        <v>35.80620764954585</v>
       </c>
       <c r="I43" t="n">
-        <v>35.80620764954586</v>
+        <v>35.80620764954585</v>
       </c>
       <c r="J43" t="n">
-        <v>35.80620764954586</v>
+        <v>35.80620764954585</v>
       </c>
       <c r="K43" t="n">
         <v>51.63002894672893</v>
@@ -7602,19 +7602,19 @@
         <v>418.4022364984083</v>
       </c>
       <c r="U43" t="n">
-        <v>129.2092363658035</v>
+        <v>418.4022364984083</v>
       </c>
       <c r="V43" t="n">
-        <v>129.2092363658035</v>
+        <v>418.4022364984083</v>
       </c>
       <c r="W43" t="n">
-        <v>129.2092363658035</v>
+        <v>418.4022364984083</v>
       </c>
       <c r="X43" t="n">
-        <v>129.2092363658035</v>
+        <v>418.4022364984083</v>
       </c>
       <c r="Y43" t="n">
-        <v>129.2092363658035</v>
+        <v>418.4022364984083</v>
       </c>
     </row>
     <row r="44">
@@ -7624,40 +7624,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>446.7921124391534</v>
+        <v>1013.571210437359</v>
       </c>
       <c r="C44" t="n">
-        <v>446.7921124391534</v>
+        <v>1013.571210437359</v>
       </c>
       <c r="D44" t="n">
-        <v>446.7921124391534</v>
+        <v>1013.571210437359</v>
       </c>
       <c r="E44" t="n">
-        <v>446.7921124391534</v>
+        <v>627.7829578391149</v>
       </c>
       <c r="F44" t="n">
-        <v>35.80620764954586</v>
+        <v>454.56249616512</v>
       </c>
       <c r="G44" t="n">
-        <v>35.80620764954586</v>
+        <v>35.80620764954585</v>
       </c>
       <c r="H44" t="n">
-        <v>35.80620764954586</v>
+        <v>35.80620764954585</v>
       </c>
       <c r="I44" t="n">
-        <v>35.80620764954586</v>
+        <v>35.80620764954585</v>
       </c>
       <c r="J44" t="n">
-        <v>85.65176897694454</v>
+        <v>85.65176897694451</v>
       </c>
       <c r="K44" t="n">
-        <v>281.1021485255874</v>
+        <v>281.1021485255872</v>
       </c>
       <c r="L44" t="n">
-        <v>575.8522548026945</v>
+        <v>575.8522548026942</v>
       </c>
       <c r="M44" t="n">
-        <v>920.4250857743285</v>
+        <v>920.4250857743282</v>
       </c>
       <c r="N44" t="n">
         <v>1255.941467845074</v>
@@ -7678,22 +7678,22 @@
         <v>1790.310382477293</v>
       </c>
       <c r="T44" t="n">
-        <v>1568.206632438117</v>
+        <v>1790.310382477293</v>
       </c>
       <c r="U44" t="n">
-        <v>1568.206632438117</v>
+        <v>1790.310382477293</v>
       </c>
       <c r="V44" t="n">
-        <v>1568.206632438117</v>
+        <v>1790.310382477293</v>
       </c>
       <c r="W44" t="n">
-        <v>1215.437977168003</v>
+        <v>1790.310382477293</v>
       </c>
       <c r="X44" t="n">
-        <v>1215.437977168003</v>
+        <v>1790.310382477293</v>
       </c>
       <c r="Y44" t="n">
-        <v>833.3919525032752</v>
+        <v>1400.171050501481</v>
       </c>
     </row>
     <row r="45">
@@ -7703,31 +7703,31 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>731.0067653025251</v>
+        <v>534.7726207653953</v>
       </c>
       <c r="C45" t="n">
-        <v>556.5537360213981</v>
+        <v>360.3195914842683</v>
       </c>
       <c r="D45" t="n">
-        <v>556.5537360213981</v>
+        <v>360.3195914842683</v>
       </c>
       <c r="E45" t="n">
-        <v>397.3162810159426</v>
+        <v>360.3195914842683</v>
       </c>
       <c r="F45" t="n">
-        <v>250.7817230428276</v>
+        <v>360.3195914842683</v>
       </c>
       <c r="G45" t="n">
-        <v>112.44759558658</v>
+        <v>221.9854640280207</v>
       </c>
       <c r="H45" t="n">
-        <v>112.44759558658</v>
+        <v>112.4475955865799</v>
       </c>
       <c r="I45" t="n">
-        <v>35.80620764954586</v>
+        <v>35.80620764954585</v>
       </c>
       <c r="J45" t="n">
-        <v>71.80050281686088</v>
+        <v>71.80050281686087</v>
       </c>
       <c r="K45" t="n">
         <v>259.9413294595961</v>
@@ -7736,10 +7736,10 @@
         <v>574.3242851876668</v>
       </c>
       <c r="M45" t="n">
-        <v>630.0359323419266</v>
+        <v>993.173587676587</v>
       </c>
       <c r="N45" t="n">
-        <v>1073.137752005057</v>
+        <v>1073.137752005056</v>
       </c>
       <c r="O45" t="n">
         <v>1414.397450208609</v>
@@ -7754,25 +7754,25 @@
         <v>1713.770924687432</v>
       </c>
       <c r="S45" t="n">
-        <v>1549.986009524823</v>
+        <v>1547.722070775884</v>
       </c>
       <c r="T45" t="n">
-        <v>1549.986009524823</v>
+        <v>1347.134447302566</v>
       </c>
       <c r="U45" t="n">
-        <v>1549.986009524823</v>
+        <v>1118.93692758903</v>
       </c>
       <c r="V45" t="n">
-        <v>1314.83390129308</v>
+        <v>883.7848193572872</v>
       </c>
       <c r="W45" t="n">
-        <v>1314.83390129308</v>
+        <v>629.5474626290857</v>
       </c>
       <c r="X45" t="n">
-        <v>1106.982401087547</v>
+        <v>534.7726207653953</v>
       </c>
       <c r="Y45" t="n">
-        <v>899.2221023225932</v>
+        <v>534.7726207653953</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1790.310382477293</v>
+        <v>204.7423905774528</v>
       </c>
       <c r="C46" t="n">
-        <v>1790.310382477293</v>
+        <v>35.80620764954585</v>
       </c>
       <c r="D46" t="n">
-        <v>1790.310382477293</v>
+        <v>35.80620764954585</v>
       </c>
       <c r="E46" t="n">
-        <v>1642.3972888949</v>
+        <v>35.80620764954585</v>
       </c>
       <c r="F46" t="n">
-        <v>1568.62326150506</v>
+        <v>35.80620764954585</v>
       </c>
       <c r="G46" t="n">
-        <v>1568.62326150506</v>
+        <v>35.80620764954585</v>
       </c>
       <c r="H46" t="n">
-        <v>1407.714353628431</v>
+        <v>35.80620764954585</v>
       </c>
       <c r="I46" t="n">
-        <v>1407.714353628431</v>
+        <v>35.80620764954585</v>
       </c>
       <c r="J46" t="n">
-        <v>1407.714353628431</v>
+        <v>35.80620764954585</v>
       </c>
       <c r="K46" t="n">
-        <v>1423.538174925614</v>
+        <v>51.63002894672893</v>
       </c>
       <c r="L46" t="n">
-        <v>1499.313652837976</v>
+        <v>127.405506859091</v>
       </c>
       <c r="M46" t="n">
-        <v>1589.597392885087</v>
+        <v>217.6892469062028</v>
       </c>
       <c r="N46" t="n">
-        <v>1683.169003809813</v>
+        <v>311.2608578309284</v>
       </c>
       <c r="O46" t="n">
-        <v>1753.581235988401</v>
+        <v>381.6730900095164</v>
       </c>
       <c r="P46" t="n">
-        <v>1790.310382477293</v>
+        <v>418.4022364984083</v>
       </c>
       <c r="Q46" t="n">
-        <v>1790.310382477293</v>
+        <v>418.4022364984083</v>
       </c>
       <c r="R46" t="n">
-        <v>1790.310382477293</v>
+        <v>418.4022364984083</v>
       </c>
       <c r="S46" t="n">
-        <v>1790.310382477293</v>
+        <v>418.4022364984083</v>
       </c>
       <c r="T46" t="n">
-        <v>1790.310382477293</v>
+        <v>418.4022364984083</v>
       </c>
       <c r="U46" t="n">
-        <v>1790.310382477293</v>
+        <v>418.4022364984083</v>
       </c>
       <c r="V46" t="n">
-        <v>1790.310382477293</v>
+        <v>204.7423905774528</v>
       </c>
       <c r="W46" t="n">
-        <v>1790.310382477293</v>
+        <v>204.7423905774528</v>
       </c>
       <c r="X46" t="n">
-        <v>1790.310382477293</v>
+        <v>204.7423905774528</v>
       </c>
       <c r="Y46" t="n">
-        <v>1790.310382477293</v>
+        <v>204.7423905774528</v>
       </c>
     </row>
   </sheetData>
@@ -8455,22 +8455,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>226.965896786692</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
-        <v>242.6424607116987</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M8" t="n">
         <v>237.2222789689842</v>
       </c>
       <c r="N8" t="n">
-        <v>236.0112893083342</v>
+        <v>236.2891093383024</v>
       </c>
       <c r="O8" t="n">
-        <v>230.0982114216867</v>
+        <v>236.9742571633982</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>237.8312214670128</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8534,10 +8534,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>144.7174847160704</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>145.1526054916175</v>
       </c>
       <c r="M9" t="n">
         <v>149.0100796637298</v>
@@ -8546,7 +8546,7 @@
         <v>138.2177578250447</v>
       </c>
       <c r="O9" t="n">
-        <v>149.1944701561877</v>
+        <v>149.4722901861559</v>
       </c>
       <c r="P9" t="n">
         <v>133.9744074143302</v>
@@ -8619,13 +8619,13 @@
         <v>141.7607220229497</v>
       </c>
       <c r="M10" t="n">
-        <v>145.5240096593483</v>
+        <v>145.8018296893165</v>
       </c>
       <c r="N10" t="n">
         <v>134.5615902069446</v>
       </c>
       <c r="O10" t="n">
-        <v>145.3325841935542</v>
+        <v>145.0547641635861</v>
       </c>
       <c r="P10" t="n">
         <v>135.0065633140411</v>
@@ -8768,28 +8768,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>89.73316143403005</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>74.42399797951273</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>350.6610247243497</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>476.7765249242283</v>
+        <v>476.7765249242284</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>71.88433512138306</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>89.85000879515029</v>
+        <v>89.8500087951503</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720737</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>89.73316143403005</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9014,7 +9014,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>98.89935129074695</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>476.7765249242283</v>
@@ -9023,10 +9023,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>108.2422090277616</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>89.8500087951503</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9248,13 +9248,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>124.2619117849048</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>230.1980914056743</v>
+        <v>476.7765249242282</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9403,7 +9403,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9479,19 +9479,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>89.73316143403002</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>251.5759395991696</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>53.28180416399387</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>98.89935129074672</v>
       </c>
       <c r="N21" t="n">
-        <v>476.7765249242283</v>
+        <v>476.7765249242282</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9725,7 +9725,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>445.5257431708903</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
         <v>476.7765249242283</v>
@@ -9734,7 +9734,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>298.2834480608274</v>
       </c>
       <c r="Q24" t="n">
         <v>89.85000879515027</v>
@@ -9953,16 +9953,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>89.73316143403004</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>74.42399797951272</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>350.6610247243495</v>
       </c>
       <c r="M27" t="n">
-        <v>98.89935129074684</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>476.7765249242283</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>89.85000879515029</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>89.73316143403004</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10202,7 +10202,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>109.9708124649755</v>
+        <v>146.328686371354</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>89.73316143403004</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10436,10 +10436,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>255.4845041378246</v>
       </c>
       <c r="N33" t="n">
-        <v>109.9708124649758</v>
+        <v>476.7765249242283</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>89.85000879515029</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>89.73316143403002</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10673,19 +10673,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>358.3821049446782</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>476.7765249242283</v>
+        <v>266.5559653120528</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>58.98001498600588</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>89.85000879515027</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720739</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10834,7 +10834,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119843</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
@@ -10904,13 +10904,13 @@
         <v>89.73316143403002</v>
       </c>
       <c r="K39" t="n">
-        <v>74.42399797951271</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>325.2984642301917</v>
+        <v>255.4845041378244</v>
       </c>
       <c r="N39" t="n">
         <v>476.7765249242283</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>89.85000879515027</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720739</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11144,7 +11144,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>124.261911784905</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
@@ -11156,7 +11156,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>71.88433512138306</v>
       </c>
       <c r="Q42" t="n">
         <v>89.85000879515027</v>
@@ -11299,7 +11299,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.145412571165</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11317,7 +11317,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599049</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11384,10 +11384,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>98.89935129074694</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>476.7765249242283</v>
+        <v>109.9708124649753</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -23260,10 +23260,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>150.3956025087828</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>300.6953067034481</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>192.2937737632647</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>219.8827125387842</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2869319570592</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23342,7 +23342,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>30.8623338894094</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
@@ -23351,10 +23351,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>136.9507861816851</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>108.4424897570263</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -23384,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>75.77406321196236</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -23399,13 +23399,13 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>132.2626700300925</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23421,7 +23421,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>56.14647458911733</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23439,7 +23439,7 @@
         <v>145.5489554269736</v>
       </c>
       <c r="J13" t="n">
-        <v>70.0810310375573</v>
+        <v>70.08103103755731</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>133.2406569599422</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23494,22 +23494,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>304.1124069037724</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23545,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>95.23210050863617</v>
       </c>
       <c r="T14" t="n">
         <v>219.8827125387842</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2869319570592</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23573,25 +23573,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>107.1017879035118</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>10.6166096905641</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>136.9507861816851</v>
       </c>
       <c r="H15" t="n">
-        <v>108.4424897570263</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -23621,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>75.77406321196236</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -23633,7 +23633,7 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
@@ -23658,7 +23658,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>74.69417868267556</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23670,13 +23670,13 @@
         <v>167.6617268962365</v>
       </c>
       <c r="H16" t="n">
-        <v>159.2998187978633</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>145.5489554269736</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>70.08103103755731</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>58.59163934688113</v>
+        <v>58.59163934688114</v>
       </c>
       <c r="R16" t="n">
         <v>162.4890033939748</v>
@@ -23712,13 +23712,13 @@
         <v>286.3010701312788</v>
       </c>
       <c r="V16" t="n">
-        <v>169.1582611900486</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23734,22 +23734,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>414.5687256304184</v>
       </c>
       <c r="H17" t="n">
-        <v>331.9576029014128</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>182.1778963848673</v>
@@ -23779,25 +23779,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>103.7612438878174</v>
+        <v>66.14714230696518</v>
       </c>
       <c r="S17" t="n">
-        <v>192.2937737632647</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>219.8827125387842</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2869319570592</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>81.91413229926638</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23816,22 +23816,22 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>100.4447096467046</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>136.9507861816851</v>
       </c>
       <c r="H18" t="n">
         <v>108.4424897570263</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>75.87497405766374</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23876,7 +23876,7 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>95.76778778208855</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -23895,16 +23895,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>82.92817937700627</v>
       </c>
       <c r="G19" t="n">
-        <v>167.6617268962365</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>159.2998187978633</v>
@@ -23934,10 +23934,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>58.59163934688113</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>162.4890033939748</v>
       </c>
       <c r="S19" t="n">
         <v>218.2786255816985</v>
@@ -23946,7 +23946,7 @@
         <v>226.5387834533317</v>
       </c>
       <c r="U19" t="n">
-        <v>128.6116443117609</v>
+        <v>286.3010701312788</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23971,13 +23971,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -23986,10 +23986,10 @@
         <v>414.5687256304184</v>
       </c>
       <c r="H20" t="n">
-        <v>331.9576029014128</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>182.1778963848673</v>
+        <v>28.73534755382593</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,7 +24016,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>103.7612438878174</v>
       </c>
       <c r="S20" t="n">
         <v>192.2937737632647</v>
@@ -24025,10 +24025,10 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2869319570592</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24037,7 +24037,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>320.6539245209274</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24047,19 +24047,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -24068,7 +24068,7 @@
         <v>108.4424897570263</v>
       </c>
       <c r="I21" t="n">
-        <v>75.87497405766374</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,7 +24095,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>75.77406321196236</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -24107,13 +24107,13 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>178.0623068424222</v>
       </c>
       <c r="X21" t="n">
-        <v>48.14932420998613</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -24132,13 +24132,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>61.70041512733897</v>
       </c>
       <c r="G22" t="n">
         <v>167.6617268962365</v>
@@ -24174,7 +24174,7 @@
         <v>58.59163934688113</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>162.4890033939748</v>
       </c>
       <c r="S22" t="n">
         <v>218.2786255816985</v>
@@ -24189,7 +24189,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>70.24193317019197</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24208,19 +24208,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>135.5685805391614</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>414.5687256304184</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>331.9576029014128</v>
@@ -24265,16 +24265,16 @@
         <v>251.2869319570592</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>116.5375953385219</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24287,25 +24287,25 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>33.44346309126841</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>66.52232499866945</v>
+        <v>136.9507861816851</v>
       </c>
       <c r="H24" t="n">
         <v>108.4424897570263</v>
       </c>
       <c r="I24" t="n">
-        <v>75.87497405766374</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24335,10 +24335,10 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>164.3883653724318</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>198.581747238585</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -24353,7 +24353,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24408,25 +24408,25 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>58.59163934688113</v>
       </c>
       <c r="R25" t="n">
         <v>162.4890033939748</v>
       </c>
       <c r="S25" t="n">
-        <v>218.2786255816985</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>226.5387834533317</v>
       </c>
       <c r="U25" t="n">
-        <v>286.3010701312788</v>
+        <v>125.8096271526034</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>192.88335257643</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24442,16 +24442,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>100.2173138446155</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>267.6103172382788</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -24490,22 +24490,22 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>103.7612438878174</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>192.2937737632647</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2869319570592</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -24530,13 +24530,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>136.9507861816851</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -24575,7 +24575,7 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>66.85737864952918</v>
       </c>
       <c r="U27" t="n">
         <v>225.9155445164008</v>
@@ -24584,7 +24584,7 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>23.95649517336264</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -24645,16 +24645,16 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>58.59163934688113</v>
+        <v>58.59163934688114</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>162.4890033939748</v>
       </c>
       <c r="S28" t="n">
-        <v>1.997560415299432</v>
+        <v>218.2786255816985</v>
       </c>
       <c r="T28" t="n">
-        <v>226.5387834533317</v>
+        <v>134.2917132295489</v>
       </c>
       <c r="U28" t="n">
         <v>286.3010701312788</v>
@@ -24663,7 +24663,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24688,16 +24688,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>414.5687256304184</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>331.9576029014128</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24727,22 +24727,22 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>103.7612438878174</v>
       </c>
       <c r="S29" t="n">
         <v>192.2937737632647</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>219.8827125387842</v>
       </c>
       <c r="U29" t="n">
-        <v>150.0867551958084</v>
+        <v>251.2869319570592</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>288.9927939891303</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24764,7 +24764,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
@@ -24779,7 +24779,7 @@
         <v>108.4424897570263</v>
       </c>
       <c r="I30" t="n">
-        <v>32.99551004340636</v>
+        <v>75.87497405766374</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24806,16 +24806,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>75.77406321196236</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>8.648979025496004</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9155445164008</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -24824,7 +24824,7 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -24882,22 +24882,22 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>58.59163934688113</v>
+        <v>58.59163934688114</v>
       </c>
       <c r="R31" t="n">
         <v>162.4890033939748</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>218.2786255816985</v>
       </c>
       <c r="T31" t="n">
-        <v>66.04734047465638</v>
+        <v>99.90635821678593</v>
       </c>
       <c r="U31" t="n">
         <v>286.3010701312788</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24922,16 +24922,16 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>414.5687256304184</v>
+        <v>368.5498381414799</v>
       </c>
       <c r="H32" t="n">
         <v>331.9576029014128</v>
@@ -24967,10 +24967,10 @@
         <v>103.7612438878174</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>192.2937737632647</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>219.8827125387842</v>
       </c>
       <c r="U32" t="n">
         <v>251.2869319570592</v>
@@ -24979,13 +24979,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>327.8781494303897</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24995,19 +24995,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>162.9944320349215</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>83.1016302938979</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>136.9507861816851</v>
@@ -25016,7 +25016,7 @@
         <v>108.4424897570263</v>
       </c>
       <c r="I33" t="n">
-        <v>75.87497405766374</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25043,7 +25043,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>75.77406321196236</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -25061,7 +25061,7 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -25083,7 +25083,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25095,7 +25095,7 @@
         <v>159.2998187978633</v>
       </c>
       <c r="I34" t="n">
-        <v>145.5489554269736</v>
+        <v>131.7975028652638</v>
       </c>
       <c r="J34" t="n">
         <v>70.0810310375573</v>
@@ -25119,16 +25119,16 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>58.59163934688114</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>162.4890033939748</v>
       </c>
       <c r="S34" t="n">
         <v>218.2786255816985</v>
       </c>
       <c r="T34" t="n">
-        <v>68.84935763381384</v>
+        <v>226.5387834533317</v>
       </c>
       <c r="U34" t="n">
         <v>286.3010701312788</v>
@@ -25143,7 +25143,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25156,13 +25156,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>363.3290472404182</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -25171,7 +25171,7 @@
         <v>414.5687256304184</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>331.9576029014128</v>
       </c>
       <c r="I35" t="n">
         <v>182.1778963848673</v>
@@ -25207,16 +25207,16 @@
         <v>192.2937737632647</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>219.8827125387842</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2869319570592</v>
+        <v>57.01704555297982</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25232,10 +25232,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>83.20036958776711</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -25247,7 +25247,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>136.9507861816851</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -25289,10 +25289,10 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>26.50008074746455</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -25301,7 +25301,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25356,7 +25356,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>58.59163934688112</v>
+        <v>58.59163934688113</v>
       </c>
       <c r="R37" t="n">
         <v>162.4890033939748</v>
@@ -25371,10 +25371,10 @@
         <v>286.3010701312788</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>201.8150279636038</v>
       </c>
       <c r="W37" t="n">
-        <v>159.8905731000452</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>245.3315124260214</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25399,13 +25399,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>247.7237517543904</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>414.5687256304184</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25441,10 +25441,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>192.2937737632647</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>219.8827125387842</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>251.2869319570592</v>
@@ -25469,7 +25469,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -25487,10 +25487,10 @@
         <v>136.9507861816851</v>
       </c>
       <c r="H39" t="n">
-        <v>108.4424897570263</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>75.87497405766374</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25523,22 +25523,22 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>114.0771199627094</v>
       </c>
       <c r="U39" t="n">
-        <v>213.719108803351</v>
+        <v>225.9155445164008</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25593,16 +25593,16 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>58.59163934688113</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>218.2786255816985</v>
+        <v>1.997560415299432</v>
       </c>
       <c r="T40" t="n">
-        <v>68.84935763381384</v>
+        <v>226.5387834533317</v>
       </c>
       <c r="U40" t="n">
         <v>286.3010701312788</v>
@@ -25627,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>414.5687256304184</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>331.9576029014128</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>182.1778963848673</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>103.7612438878174</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>192.2937737632647</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>121.4904285242275</v>
+        <v>219.8827125387842</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2869319570592</v>
+        <v>18.06552655685559</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25706,10 +25706,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -25721,10 +25721,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>39.59255095758365</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>108.4424897570263</v>
       </c>
       <c r="I42" t="n">
         <v>75.87497405766374</v>
@@ -25754,7 +25754,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>75.77406321196234</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -25763,10 +25763,10 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9155445164008</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
@@ -25775,7 +25775,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>191.7354265302901</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25788,10 +25788,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>75.19272846714139</v>
+        <v>104.7539524527028</v>
       </c>
       <c r="H43" t="n">
         <v>159.2998187978633</v>
@@ -25830,7 +25830,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>58.59163934688112</v>
+        <v>58.59163934688113</v>
       </c>
       <c r="R43" t="n">
         <v>162.4890033939748</v>
@@ -25842,7 +25842,7 @@
         <v>226.5387834533317</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.3010701312788</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25873,13 +25873,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>235.3877886844565</v>
       </c>
       <c r="G44" t="n">
-        <v>414.5687256304184</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>331.9576029014128</v>
@@ -25918,7 +25918,7 @@
         <v>192.2937737632647</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>219.8827125387842</v>
       </c>
       <c r="U44" t="n">
         <v>251.2869319570592</v>
@@ -25927,13 +25927,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>8.01237423797329</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -25943,7 +25943,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -25952,16 +25952,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>108.4424897570263</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -25994,25 +25994,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>2.24129936144854</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>198.581747238585</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9155445164008</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>111.9458917584241</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26025,22 +26025,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>72.38476090699027</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>167.6617268962365</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>159.2998187978633</v>
       </c>
       <c r="I46" t="n">
         <v>145.5489554269736</v>
@@ -26067,7 +26067,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>58.59163934688112</v>
+        <v>58.59163934688113</v>
       </c>
       <c r="R46" t="n">
         <v>162.4890033939748</v>
@@ -26082,7 +26082,7 @@
         <v>286.3010701312788</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>40.61439586208201</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>545311.8267819623</v>
+        <v>545311.8267819621</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>545311.8267819621</v>
+        <v>545311.8267819623</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>545311.8267819621</v>
+        <v>545311.8267819623</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>545311.8267819623</v>
+        <v>545311.8267819621</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>545311.8267819624</v>
+        <v>545311.8267819623</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>614457.2540377788</v>
+        <v>614457.2540377787</v>
       </c>
       <c r="C2" t="n">
         <v>614457.2540377787</v>
@@ -26322,40 +26322,40 @@
         <v>615278.2538993392</v>
       </c>
       <c r="E2" t="n">
-        <v>338091.8044820995</v>
+        <v>338091.8044820996</v>
       </c>
       <c r="F2" t="n">
-        <v>338091.8044820996</v>
+        <v>338091.8044820998</v>
       </c>
       <c r="G2" t="n">
-        <v>338091.8044820994</v>
+        <v>338091.8044820997</v>
       </c>
       <c r="H2" t="n">
         <v>338091.8044820995</v>
       </c>
       <c r="I2" t="n">
-        <v>338091.8044820995</v>
+        <v>338091.8044820997</v>
       </c>
       <c r="J2" t="n">
-        <v>338091.8044820995</v>
+        <v>338091.8044820997</v>
       </c>
       <c r="K2" t="n">
-        <v>338091.8044820995</v>
+        <v>338091.8044820994</v>
       </c>
       <c r="L2" t="n">
-        <v>338091.8044820995</v>
+        <v>338091.8044820997</v>
       </c>
       <c r="M2" t="n">
-        <v>338091.8044820995</v>
+        <v>338091.8044820997</v>
       </c>
       <c r="N2" t="n">
-        <v>338091.8044820994</v>
+        <v>338091.8044820996</v>
       </c>
       <c r="O2" t="n">
-        <v>338091.8044820994</v>
+        <v>338091.8044820997</v>
       </c>
       <c r="P2" t="n">
-        <v>338091.8044820994</v>
+        <v>338091.8044820998</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>2135.906088747824</v>
       </c>
       <c r="E3" t="n">
-        <v>278273.4907258389</v>
+        <v>278273.4907258388</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26395,7 +26395,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1740.265292815489</v>
+        <v>1740.265292815504</v>
       </c>
       <c r="M3" t="n">
         <v>109824.5890357004</v>
@@ -26429,7 +26429,7 @@
         <v>94860.98416040692</v>
       </c>
       <c r="F4" t="n">
-        <v>94860.98416040692</v>
+        <v>94860.98416040691</v>
       </c>
       <c r="G4" t="n">
         <v>94860.98416040692</v>
@@ -26438,7 +26438,7 @@
         <v>94860.98416040692</v>
       </c>
       <c r="I4" t="n">
-        <v>94860.98416040692</v>
+        <v>94860.98416040691</v>
       </c>
       <c r="J4" t="n">
         <v>94860.98416040692</v>
@@ -26481,16 +26481,16 @@
         <v>31193.08076150206</v>
       </c>
       <c r="F5" t="n">
-        <v>31193.08076150206</v>
+        <v>31193.08076150205</v>
       </c>
       <c r="G5" t="n">
-        <v>31193.08076150206</v>
+        <v>31193.08076150205</v>
       </c>
       <c r="H5" t="n">
-        <v>31193.08076150206</v>
+        <v>31193.08076150205</v>
       </c>
       <c r="I5" t="n">
-        <v>31193.08076150206</v>
+        <v>31193.08076150205</v>
       </c>
       <c r="J5" t="n">
         <v>31193.08076150206</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>176807.9959779645</v>
+        <v>176763.8601992833</v>
       </c>
       <c r="C6" t="n">
-        <v>176807.9959779645</v>
+        <v>176763.8601992833</v>
       </c>
       <c r="D6" t="n">
-        <v>175574.8029651286</v>
+        <v>175558.0338484995</v>
       </c>
       <c r="E6" t="n">
-        <v>-66235.75116564837</v>
+        <v>-75492.06859618529</v>
       </c>
       <c r="F6" t="n">
-        <v>212037.7395601906</v>
+        <v>202781.4221296537</v>
       </c>
       <c r="G6" t="n">
-        <v>212037.7395601904</v>
+        <v>202781.4221296536</v>
       </c>
       <c r="H6" t="n">
-        <v>212037.7395601906</v>
+        <v>202781.4221296535</v>
       </c>
       <c r="I6" t="n">
-        <v>212037.7395601905</v>
+        <v>202781.4221296536</v>
       </c>
       <c r="J6" t="n">
-        <v>212037.7395601905</v>
+        <v>202781.4221296536</v>
       </c>
       <c r="K6" t="n">
-        <v>212037.7395601906</v>
+        <v>202781.4221296533</v>
       </c>
       <c r="L6" t="n">
-        <v>210297.474267375</v>
+        <v>201041.1568368381</v>
       </c>
       <c r="M6" t="n">
-        <v>102213.1505244902</v>
+        <v>92956.83309395322</v>
       </c>
       <c r="N6" t="n">
-        <v>212037.7395601904</v>
+        <v>202781.4221296535</v>
       </c>
       <c r="O6" t="n">
-        <v>212037.7395601904</v>
+        <v>202781.4221296536</v>
       </c>
       <c r="P6" t="n">
-        <v>212037.7395601904</v>
+        <v>202781.4221296537</v>
       </c>
     </row>
   </sheetData>
@@ -26746,10 +26746,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>182.5854563232666</v>
+        <v>182.5854563232665</v>
       </c>
       <c r="F3" t="n">
-        <v>182.5854563232666</v>
+        <v>182.5854563232665</v>
       </c>
       <c r="G3" t="n">
         <v>182.5854563232666</v>
@@ -26801,16 +26801,16 @@
         <v>447.5775956193232</v>
       </c>
       <c r="F4" t="n">
-        <v>447.5775956193232</v>
+        <v>447.5775956193231</v>
       </c>
       <c r="G4" t="n">
-        <v>447.5775956193232</v>
+        <v>447.5775956193231</v>
       </c>
       <c r="H4" t="n">
-        <v>447.5775956193232</v>
+        <v>447.5775956193231</v>
       </c>
       <c r="I4" t="n">
-        <v>447.5775956193232</v>
+        <v>447.5775956193231</v>
       </c>
       <c r="J4" t="n">
         <v>447.5775956193232</v>
@@ -26819,7 +26819,7 @@
         <v>447.5775956193232</v>
       </c>
       <c r="L4" t="n">
-        <v>447.5775956193233</v>
+        <v>447.5775956193232</v>
       </c>
       <c r="M4" t="n">
         <v>447.5775956193232</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>182.5854563232666</v>
+        <v>182.5854563232665</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27041,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>6.876045741711437</v>
+        <v>6.876045741711494</v>
       </c>
       <c r="M4" t="n">
-        <v>440.7015498776117</v>
+        <v>440.7015498776118</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27873,10 +27873,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>203.5998438286945</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>5.073243612901081</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27946,16 +27946,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>132.0336874001691</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>105.359398494785</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>82.52058710970364</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27988,19 +27988,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>219.0653363392634</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>245.6385620716202</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>198.8066500355929</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28010,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>172.9559344402259</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>160.3707753569164</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>141.7394272765009</v>
       </c>
       <c r="E10" t="n">
-        <v>139.5579169048577</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28031,13 +28031,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>148.5744291855468</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>18.93451147168993</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28052,13 +28052,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>79.28599750998295</v>
       </c>
       <c r="R10" t="n">
-        <v>171.2369702878701</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -31752,19 +31752,19 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.7340118847166489</v>
+        <v>0.7340118847166488</v>
       </c>
       <c r="H11" t="n">
-        <v>7.517199214354383</v>
+        <v>7.517199214354381</v>
       </c>
       <c r="I11" t="n">
         <v>28.29799318553863</v>
       </c>
       <c r="J11" t="n">
-        <v>62.29834120046974</v>
+        <v>62.29834120046973</v>
       </c>
       <c r="K11" t="n">
-        <v>93.36906428052551</v>
+        <v>93.36906428052549</v>
       </c>
       <c r="L11" t="n">
         <v>115.8325804974227</v>
@@ -31773,7 +31773,7 @@
         <v>128.8860643522524</v>
       </c>
       <c r="N11" t="n">
-        <v>130.9715756197036</v>
+        <v>130.9715756197035</v>
       </c>
       <c r="O11" t="n">
         <v>123.6727449410524</v>
@@ -31782,10 +31782,10 @@
         <v>105.5518265371101</v>
       </c>
       <c r="Q11" t="n">
-        <v>79.26502591569508</v>
+        <v>79.26502591569506</v>
       </c>
       <c r="R11" t="n">
-        <v>46.10787405333224</v>
+        <v>46.10787405333223</v>
       </c>
       <c r="S11" t="n">
         <v>16.72629582298065</v>
@@ -31794,7 +31794,7 @@
         <v>3.213137025347132</v>
       </c>
       <c r="U11" t="n">
-        <v>0.0587209507773319</v>
+        <v>0.05872095077733189</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,43 +31831,43 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3927309815255168</v>
+        <v>0.3927309815255167</v>
       </c>
       <c r="H12" t="n">
-        <v>3.792954479470123</v>
+        <v>3.792954479470122</v>
       </c>
       <c r="I12" t="n">
-        <v>13.52165879375135</v>
+        <v>13.52165879375134</v>
       </c>
       <c r="J12" t="n">
-        <v>37.10446523263666</v>
+        <v>37.10446523263665</v>
       </c>
       <c r="K12" t="n">
         <v>63.41744099484627</v>
       </c>
       <c r="L12" t="n">
-        <v>85.2725756158803</v>
+        <v>85.27257561588029</v>
       </c>
       <c r="M12" t="n">
-        <v>99.50907369618027</v>
+        <v>99.50907369618024</v>
       </c>
       <c r="N12" t="n">
-        <v>102.1427827784282</v>
+        <v>102.1427827784281</v>
       </c>
       <c r="O12" t="n">
-        <v>93.44069102988907</v>
+        <v>93.44069102988905</v>
       </c>
       <c r="P12" t="n">
-        <v>74.99439242832435</v>
+        <v>74.99439242832433</v>
       </c>
       <c r="Q12" t="n">
-        <v>50.13176529087123</v>
+        <v>50.13176529087122</v>
       </c>
       <c r="R12" t="n">
-        <v>24.38377094068078</v>
+        <v>24.38377094068077</v>
       </c>
       <c r="S12" t="n">
-        <v>7.294805731405975</v>
+        <v>7.294805731405974</v>
       </c>
       <c r="T12" t="n">
         <v>1.582981456236622</v>
@@ -31916,7 +31916,7 @@
         <v>2.927353709576308</v>
       </c>
       <c r="I13" t="n">
-        <v>9.901519500284687</v>
+        <v>9.901519500284685</v>
       </c>
       <c r="J13" t="n">
         <v>23.27814907911547</v>
@@ -31928,31 +31928,31 @@
         <v>48.95086151984756</v>
       </c>
       <c r="M13" t="n">
-        <v>51.61182005544401</v>
+        <v>51.611820055444</v>
       </c>
       <c r="N13" t="n">
         <v>50.38460633261553</v>
       </c>
       <c r="O13" t="n">
-        <v>46.53833893301884</v>
+        <v>46.53833893301883</v>
       </c>
       <c r="P13" t="n">
         <v>39.82158870368421</v>
       </c>
       <c r="Q13" t="n">
-        <v>27.57040390481325</v>
+        <v>27.57040390481324</v>
       </c>
       <c r="R13" t="n">
         <v>14.80438798319469</v>
       </c>
       <c r="S13" t="n">
-        <v>5.7379724552738</v>
+        <v>5.737972455273799</v>
       </c>
       <c r="T13" t="n">
         <v>1.406805974949758</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0179592252121246</v>
+        <v>0.01795922521212459</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,19 +31989,19 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.734011884716649</v>
+        <v>0.7340118847166488</v>
       </c>
       <c r="H14" t="n">
-        <v>7.517199214354384</v>
+        <v>7.517199214354381</v>
       </c>
       <c r="I14" t="n">
-        <v>28.29799318553864</v>
+        <v>28.29799318553863</v>
       </c>
       <c r="J14" t="n">
-        <v>62.29834120046975</v>
+        <v>62.29834120046973</v>
       </c>
       <c r="K14" t="n">
-        <v>93.36906428052552</v>
+        <v>93.36906428052549</v>
       </c>
       <c r="L14" t="n">
         <v>115.8325804974227</v>
@@ -32010,7 +32010,7 @@
         <v>128.8860643522524</v>
       </c>
       <c r="N14" t="n">
-        <v>130.9715756197036</v>
+        <v>130.9715756197035</v>
       </c>
       <c r="O14" t="n">
         <v>123.6727449410524</v>
@@ -32019,19 +32019,19 @@
         <v>105.5518265371101</v>
       </c>
       <c r="Q14" t="n">
-        <v>79.26502591569509</v>
+        <v>79.26502591569506</v>
       </c>
       <c r="R14" t="n">
-        <v>46.10787405333225</v>
+        <v>46.10787405333223</v>
       </c>
       <c r="S14" t="n">
-        <v>16.72629582298066</v>
+        <v>16.72629582298065</v>
       </c>
       <c r="T14" t="n">
-        <v>3.213137025347133</v>
+        <v>3.213137025347132</v>
       </c>
       <c r="U14" t="n">
-        <v>0.05872095077733191</v>
+        <v>0.05872095077733189</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3927309815255168</v>
+        <v>0.3927309815255167</v>
       </c>
       <c r="H15" t="n">
-        <v>3.792954479470124</v>
+        <v>3.792954479470122</v>
       </c>
       <c r="I15" t="n">
-        <v>13.52165879375135</v>
+        <v>13.52165879375134</v>
       </c>
       <c r="J15" t="n">
-        <v>37.10446523263666</v>
+        <v>37.10446523263665</v>
       </c>
       <c r="K15" t="n">
-        <v>63.41744099484629</v>
+        <v>63.41744099484627</v>
       </c>
       <c r="L15" t="n">
-        <v>85.27257561588031</v>
+        <v>85.27257561588029</v>
       </c>
       <c r="M15" t="n">
-        <v>99.50907369618028</v>
+        <v>99.50907369618024</v>
       </c>
       <c r="N15" t="n">
-        <v>102.1427827784282</v>
+        <v>102.1427827784281</v>
       </c>
       <c r="O15" t="n">
-        <v>93.44069102988908</v>
+        <v>93.44069102988905</v>
       </c>
       <c r="P15" t="n">
-        <v>74.99439242832435</v>
+        <v>74.99439242832433</v>
       </c>
       <c r="Q15" t="n">
-        <v>50.13176529087124</v>
+        <v>50.13176529087122</v>
       </c>
       <c r="R15" t="n">
-        <v>24.38377094068078</v>
+        <v>24.38377094068077</v>
       </c>
       <c r="S15" t="n">
-        <v>7.294805731405976</v>
+        <v>7.294805731405974</v>
       </c>
       <c r="T15" t="n">
         <v>1.582981456236622</v>
       </c>
       <c r="U15" t="n">
-        <v>0.02583756457404717</v>
+        <v>0.02583756457404716</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32153,43 +32153,43 @@
         <v>2.927353709576308</v>
       </c>
       <c r="I16" t="n">
-        <v>9.901519500284689</v>
+        <v>9.901519500284685</v>
       </c>
       <c r="J16" t="n">
-        <v>23.27814907911548</v>
+        <v>23.27814907911547</v>
       </c>
       <c r="K16" t="n">
-        <v>38.25314970182535</v>
+        <v>38.25314970182534</v>
       </c>
       <c r="L16" t="n">
-        <v>48.95086151984757</v>
+        <v>48.95086151984756</v>
       </c>
       <c r="M16" t="n">
-        <v>51.61182005544401</v>
+        <v>51.611820055444</v>
       </c>
       <c r="N16" t="n">
-        <v>50.38460633261555</v>
+        <v>50.38460633261553</v>
       </c>
       <c r="O16" t="n">
-        <v>46.53833893301885</v>
+        <v>46.53833893301883</v>
       </c>
       <c r="P16" t="n">
-        <v>39.82158870368422</v>
+        <v>39.82158870368421</v>
       </c>
       <c r="Q16" t="n">
-        <v>27.57040390481325</v>
+        <v>27.57040390481324</v>
       </c>
       <c r="R16" t="n">
         <v>14.80438798319469</v>
       </c>
       <c r="S16" t="n">
-        <v>5.737972455273801</v>
+        <v>5.737972455273799</v>
       </c>
       <c r="T16" t="n">
         <v>1.406805974949758</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0179592252121246</v>
+        <v>0.01795922521212459</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32937,19 +32937,19 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.734011884716649</v>
+        <v>0.7340118847166489</v>
       </c>
       <c r="H26" t="n">
-        <v>7.517199214354384</v>
+        <v>7.517199214354383</v>
       </c>
       <c r="I26" t="n">
-        <v>28.29799318553864</v>
+        <v>28.29799318553863</v>
       </c>
       <c r="J26" t="n">
-        <v>62.29834120046975</v>
+        <v>62.29834120046974</v>
       </c>
       <c r="K26" t="n">
-        <v>93.36906428052552</v>
+        <v>93.36906428052551</v>
       </c>
       <c r="L26" t="n">
         <v>115.8325804974227</v>
@@ -32967,19 +32967,19 @@
         <v>105.5518265371101</v>
       </c>
       <c r="Q26" t="n">
-        <v>79.26502591569509</v>
+        <v>79.26502591569508</v>
       </c>
       <c r="R26" t="n">
-        <v>46.10787405333225</v>
+        <v>46.10787405333224</v>
       </c>
       <c r="S26" t="n">
-        <v>16.72629582298066</v>
+        <v>16.72629582298065</v>
       </c>
       <c r="T26" t="n">
-        <v>3.213137025347133</v>
+        <v>3.213137025347132</v>
       </c>
       <c r="U26" t="n">
-        <v>0.05872095077733191</v>
+        <v>0.0587209507773319</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33019,7 +33019,7 @@
         <v>0.3927309815255168</v>
       </c>
       <c r="H27" t="n">
-        <v>3.792954479470124</v>
+        <v>3.792954479470123</v>
       </c>
       <c r="I27" t="n">
         <v>13.52165879375135</v>
@@ -33028,37 +33028,37 @@
         <v>37.10446523263666</v>
       </c>
       <c r="K27" t="n">
-        <v>63.41744099484629</v>
+        <v>63.41744099484627</v>
       </c>
       <c r="L27" t="n">
-        <v>85.27257561588031</v>
+        <v>85.2725756158803</v>
       </c>
       <c r="M27" t="n">
-        <v>99.50907369618028</v>
+        <v>99.50907369618027</v>
       </c>
       <c r="N27" t="n">
         <v>102.1427827784282</v>
       </c>
       <c r="O27" t="n">
-        <v>93.44069102988908</v>
+        <v>93.44069102988907</v>
       </c>
       <c r="P27" t="n">
         <v>74.99439242832435</v>
       </c>
       <c r="Q27" t="n">
-        <v>50.13176529087124</v>
+        <v>50.13176529087123</v>
       </c>
       <c r="R27" t="n">
         <v>24.38377094068078</v>
       </c>
       <c r="S27" t="n">
-        <v>7.294805731405976</v>
+        <v>7.294805731405975</v>
       </c>
       <c r="T27" t="n">
         <v>1.582981456236622</v>
       </c>
       <c r="U27" t="n">
-        <v>0.02583756457404717</v>
+        <v>0.02583756457404716</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33101,28 +33101,28 @@
         <v>2.927353709576308</v>
       </c>
       <c r="I28" t="n">
-        <v>9.901519500284689</v>
+        <v>9.901519500284687</v>
       </c>
       <c r="J28" t="n">
-        <v>23.27814907911548</v>
+        <v>23.27814907911547</v>
       </c>
       <c r="K28" t="n">
-        <v>38.25314970182535</v>
+        <v>38.25314970182534</v>
       </c>
       <c r="L28" t="n">
-        <v>48.95086151984757</v>
+        <v>48.95086151984756</v>
       </c>
       <c r="M28" t="n">
         <v>51.61182005544401</v>
       </c>
       <c r="N28" t="n">
-        <v>50.38460633261555</v>
+        <v>50.38460633261553</v>
       </c>
       <c r="O28" t="n">
-        <v>46.53833893301885</v>
+        <v>46.53833893301884</v>
       </c>
       <c r="P28" t="n">
-        <v>39.82158870368422</v>
+        <v>39.82158870368421</v>
       </c>
       <c r="Q28" t="n">
         <v>27.57040390481325</v>
@@ -33131,7 +33131,7 @@
         <v>14.80438798319469</v>
       </c>
       <c r="S28" t="n">
-        <v>5.737972455273801</v>
+        <v>5.7379724552738</v>
       </c>
       <c r="T28" t="n">
         <v>1.406805974949758</v>
@@ -33174,19 +33174,19 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.734011884716649</v>
+        <v>0.7340118847166489</v>
       </c>
       <c r="H29" t="n">
-        <v>7.517199214354384</v>
+        <v>7.517199214354383</v>
       </c>
       <c r="I29" t="n">
-        <v>28.29799318553864</v>
+        <v>28.29799318553863</v>
       </c>
       <c r="J29" t="n">
-        <v>62.29834120046975</v>
+        <v>62.29834120046974</v>
       </c>
       <c r="K29" t="n">
-        <v>93.36906428052552</v>
+        <v>93.36906428052551</v>
       </c>
       <c r="L29" t="n">
         <v>115.8325804974227</v>
@@ -33204,19 +33204,19 @@
         <v>105.5518265371101</v>
       </c>
       <c r="Q29" t="n">
-        <v>79.26502591569509</v>
+        <v>79.26502591569508</v>
       </c>
       <c r="R29" t="n">
-        <v>46.10787405333225</v>
+        <v>46.10787405333224</v>
       </c>
       <c r="S29" t="n">
-        <v>16.72629582298066</v>
+        <v>16.72629582298065</v>
       </c>
       <c r="T29" t="n">
-        <v>3.213137025347133</v>
+        <v>3.213137025347132</v>
       </c>
       <c r="U29" t="n">
-        <v>0.05872095077733191</v>
+        <v>0.0587209507773319</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33256,7 +33256,7 @@
         <v>0.3927309815255168</v>
       </c>
       <c r="H30" t="n">
-        <v>3.792954479470124</v>
+        <v>3.792954479470123</v>
       </c>
       <c r="I30" t="n">
         <v>13.52165879375135</v>
@@ -33265,37 +33265,37 @@
         <v>37.10446523263666</v>
       </c>
       <c r="K30" t="n">
-        <v>63.41744099484629</v>
+        <v>63.41744099484627</v>
       </c>
       <c r="L30" t="n">
-        <v>85.27257561588031</v>
+        <v>85.2725756158803</v>
       </c>
       <c r="M30" t="n">
-        <v>99.50907369618028</v>
+        <v>99.50907369618027</v>
       </c>
       <c r="N30" t="n">
         <v>102.1427827784282</v>
       </c>
       <c r="O30" t="n">
-        <v>93.44069102988908</v>
+        <v>93.44069102988907</v>
       </c>
       <c r="P30" t="n">
         <v>74.99439242832435</v>
       </c>
       <c r="Q30" t="n">
-        <v>50.13176529087124</v>
+        <v>50.13176529087123</v>
       </c>
       <c r="R30" t="n">
         <v>24.38377094068078</v>
       </c>
       <c r="S30" t="n">
-        <v>7.294805731405976</v>
+        <v>7.294805731405975</v>
       </c>
       <c r="T30" t="n">
         <v>1.582981456236622</v>
       </c>
       <c r="U30" t="n">
-        <v>0.02583756457404717</v>
+        <v>0.02583756457404716</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33338,28 +33338,28 @@
         <v>2.927353709576308</v>
       </c>
       <c r="I31" t="n">
-        <v>9.901519500284689</v>
+        <v>9.901519500284687</v>
       </c>
       <c r="J31" t="n">
-        <v>23.27814907911548</v>
+        <v>23.27814907911547</v>
       </c>
       <c r="K31" t="n">
-        <v>38.25314970182535</v>
+        <v>38.25314970182534</v>
       </c>
       <c r="L31" t="n">
-        <v>48.95086151984757</v>
+        <v>48.95086151984756</v>
       </c>
       <c r="M31" t="n">
         <v>51.61182005544401</v>
       </c>
       <c r="N31" t="n">
-        <v>50.38460633261555</v>
+        <v>50.38460633261553</v>
       </c>
       <c r="O31" t="n">
-        <v>46.53833893301885</v>
+        <v>46.53833893301884</v>
       </c>
       <c r="P31" t="n">
-        <v>39.82158870368422</v>
+        <v>39.82158870368421</v>
       </c>
       <c r="Q31" t="n">
         <v>27.57040390481325</v>
@@ -33368,7 +33368,7 @@
         <v>14.80438798319469</v>
       </c>
       <c r="S31" t="n">
-        <v>5.737972455273801</v>
+        <v>5.7379724552738</v>
       </c>
       <c r="T31" t="n">
         <v>1.406805974949758</v>
@@ -33411,19 +33411,19 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.734011884716649</v>
+        <v>0.7340118847166489</v>
       </c>
       <c r="H32" t="n">
-        <v>7.517199214354384</v>
+        <v>7.517199214354383</v>
       </c>
       <c r="I32" t="n">
-        <v>28.29799318553864</v>
+        <v>28.29799318553863</v>
       </c>
       <c r="J32" t="n">
-        <v>62.29834120046975</v>
+        <v>62.29834120046974</v>
       </c>
       <c r="K32" t="n">
-        <v>93.36906428052552</v>
+        <v>93.36906428052551</v>
       </c>
       <c r="L32" t="n">
         <v>115.8325804974227</v>
@@ -33441,19 +33441,19 @@
         <v>105.5518265371101</v>
       </c>
       <c r="Q32" t="n">
-        <v>79.26502591569509</v>
+        <v>79.26502591569508</v>
       </c>
       <c r="R32" t="n">
-        <v>46.10787405333225</v>
+        <v>46.10787405333224</v>
       </c>
       <c r="S32" t="n">
-        <v>16.72629582298066</v>
+        <v>16.72629582298065</v>
       </c>
       <c r="T32" t="n">
-        <v>3.213137025347133</v>
+        <v>3.213137025347132</v>
       </c>
       <c r="U32" t="n">
-        <v>0.05872095077733191</v>
+        <v>0.0587209507773319</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33493,7 +33493,7 @@
         <v>0.3927309815255168</v>
       </c>
       <c r="H33" t="n">
-        <v>3.792954479470124</v>
+        <v>3.792954479470123</v>
       </c>
       <c r="I33" t="n">
         <v>13.52165879375135</v>
@@ -33502,37 +33502,37 @@
         <v>37.10446523263666</v>
       </c>
       <c r="K33" t="n">
-        <v>63.41744099484629</v>
+        <v>63.41744099484627</v>
       </c>
       <c r="L33" t="n">
-        <v>85.27257561588031</v>
+        <v>85.2725756158803</v>
       </c>
       <c r="M33" t="n">
-        <v>99.50907369618028</v>
+        <v>99.50907369618027</v>
       </c>
       <c r="N33" t="n">
         <v>102.1427827784282</v>
       </c>
       <c r="O33" t="n">
-        <v>93.44069102988908</v>
+        <v>93.44069102988907</v>
       </c>
       <c r="P33" t="n">
         <v>74.99439242832435</v>
       </c>
       <c r="Q33" t="n">
-        <v>50.13176529087124</v>
+        <v>50.13176529087123</v>
       </c>
       <c r="R33" t="n">
         <v>24.38377094068078</v>
       </c>
       <c r="S33" t="n">
-        <v>7.294805731405976</v>
+        <v>7.294805731405975</v>
       </c>
       <c r="T33" t="n">
         <v>1.582981456236622</v>
       </c>
       <c r="U33" t="n">
-        <v>0.02583756457404717</v>
+        <v>0.02583756457404716</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33575,28 +33575,28 @@
         <v>2.927353709576308</v>
       </c>
       <c r="I34" t="n">
-        <v>9.901519500284689</v>
+        <v>9.901519500284687</v>
       </c>
       <c r="J34" t="n">
-        <v>23.27814907911548</v>
+        <v>23.27814907911547</v>
       </c>
       <c r="K34" t="n">
-        <v>38.25314970182535</v>
+        <v>38.25314970182534</v>
       </c>
       <c r="L34" t="n">
-        <v>48.95086151984757</v>
+        <v>48.95086151984756</v>
       </c>
       <c r="M34" t="n">
         <v>51.61182005544401</v>
       </c>
       <c r="N34" t="n">
-        <v>50.38460633261555</v>
+        <v>50.38460633261553</v>
       </c>
       <c r="O34" t="n">
-        <v>46.53833893301885</v>
+        <v>46.53833893301884</v>
       </c>
       <c r="P34" t="n">
-        <v>39.82158870368422</v>
+        <v>39.82158870368421</v>
       </c>
       <c r="Q34" t="n">
         <v>27.57040390481325</v>
@@ -33605,7 +33605,7 @@
         <v>14.80438798319469</v>
       </c>
       <c r="S34" t="n">
-        <v>5.737972455273801</v>
+        <v>5.7379724552738</v>
       </c>
       <c r="T34" t="n">
         <v>1.406805974949758</v>
@@ -33648,19 +33648,19 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.7340118847166491</v>
+        <v>0.734011884716649</v>
       </c>
       <c r="H35" t="n">
-        <v>7.517199214354385</v>
+        <v>7.517199214354384</v>
       </c>
       <c r="I35" t="n">
         <v>28.29799318553864</v>
       </c>
       <c r="J35" t="n">
-        <v>62.29834120046976</v>
+        <v>62.29834120046975</v>
       </c>
       <c r="K35" t="n">
-        <v>93.36906428052554</v>
+        <v>93.36906428052552</v>
       </c>
       <c r="L35" t="n">
         <v>115.8325804974227</v>
@@ -33678,7 +33678,7 @@
         <v>105.5518265371101</v>
       </c>
       <c r="Q35" t="n">
-        <v>79.26502591569511</v>
+        <v>79.26502591569509</v>
       </c>
       <c r="R35" t="n">
         <v>46.10787405333225</v>
@@ -33690,7 +33690,7 @@
         <v>3.213137025347133</v>
       </c>
       <c r="U35" t="n">
-        <v>0.05872095077733192</v>
+        <v>0.05872095077733191</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.3927309815255169</v>
+        <v>0.3927309815255168</v>
       </c>
       <c r="H36" t="n">
         <v>3.792954479470124</v>
@@ -33736,34 +33736,34 @@
         <v>13.52165879375135</v>
       </c>
       <c r="J36" t="n">
-        <v>37.10446523263667</v>
+        <v>37.10446523263666</v>
       </c>
       <c r="K36" t="n">
-        <v>63.4174409948463</v>
+        <v>63.41744099484629</v>
       </c>
       <c r="L36" t="n">
-        <v>85.27257561588033</v>
+        <v>85.27257561588031</v>
       </c>
       <c r="M36" t="n">
-        <v>99.50907369618029</v>
+        <v>99.50907369618028</v>
       </c>
       <c r="N36" t="n">
         <v>102.1427827784282</v>
       </c>
       <c r="O36" t="n">
-        <v>93.44069102988909</v>
+        <v>93.44069102988908</v>
       </c>
       <c r="P36" t="n">
-        <v>74.99439242832436</v>
+        <v>74.99439242832435</v>
       </c>
       <c r="Q36" t="n">
         <v>50.13176529087124</v>
       </c>
       <c r="R36" t="n">
-        <v>24.38377094068079</v>
+        <v>24.38377094068078</v>
       </c>
       <c r="S36" t="n">
-        <v>7.294805731405978</v>
+        <v>7.294805731405976</v>
       </c>
       <c r="T36" t="n">
         <v>1.582981456236622</v>
@@ -33806,13 +33806,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.329252462222284</v>
+        <v>0.3292524622222839</v>
       </c>
       <c r="H37" t="n">
-        <v>2.927353709576309</v>
+        <v>2.927353709576308</v>
       </c>
       <c r="I37" t="n">
-        <v>9.901519500284691</v>
+        <v>9.901519500284689</v>
       </c>
       <c r="J37" t="n">
         <v>23.27814907911548</v>
@@ -33821,31 +33821,31 @@
         <v>38.25314970182535</v>
       </c>
       <c r="L37" t="n">
-        <v>48.95086151984758</v>
+        <v>48.95086151984757</v>
       </c>
       <c r="M37" t="n">
-        <v>51.61182005544402</v>
+        <v>51.61182005544401</v>
       </c>
       <c r="N37" t="n">
         <v>50.38460633261555</v>
       </c>
       <c r="O37" t="n">
-        <v>46.53833893301886</v>
+        <v>46.53833893301885</v>
       </c>
       <c r="P37" t="n">
-        <v>39.82158870368423</v>
+        <v>39.82158870368422</v>
       </c>
       <c r="Q37" t="n">
-        <v>27.57040390481326</v>
+        <v>27.57040390481325</v>
       </c>
       <c r="R37" t="n">
         <v>14.80438798319469</v>
       </c>
       <c r="S37" t="n">
-        <v>5.737972455273802</v>
+        <v>5.737972455273801</v>
       </c>
       <c r="T37" t="n">
-        <v>1.406805974949759</v>
+        <v>1.406805974949758</v>
       </c>
       <c r="U37" t="n">
         <v>0.0179592252121246</v>
@@ -33885,19 +33885,19 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.7340118847166491</v>
+        <v>0.734011884716649</v>
       </c>
       <c r="H38" t="n">
-        <v>7.517199214354385</v>
+        <v>7.517199214354384</v>
       </c>
       <c r="I38" t="n">
         <v>28.29799318553864</v>
       </c>
       <c r="J38" t="n">
-        <v>62.29834120046976</v>
+        <v>62.29834120046975</v>
       </c>
       <c r="K38" t="n">
-        <v>93.36906428052554</v>
+        <v>93.36906428052552</v>
       </c>
       <c r="L38" t="n">
         <v>115.8325804974227</v>
@@ -33915,7 +33915,7 @@
         <v>105.5518265371101</v>
       </c>
       <c r="Q38" t="n">
-        <v>79.26502591569511</v>
+        <v>79.26502591569509</v>
       </c>
       <c r="R38" t="n">
         <v>46.10787405333225</v>
@@ -33927,7 +33927,7 @@
         <v>3.213137025347133</v>
       </c>
       <c r="U38" t="n">
-        <v>0.05872095077733192</v>
+        <v>0.05872095077733191</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.3927309815255169</v>
+        <v>0.3927309815255168</v>
       </c>
       <c r="H39" t="n">
         <v>3.792954479470124</v>
@@ -33973,34 +33973,34 @@
         <v>13.52165879375135</v>
       </c>
       <c r="J39" t="n">
-        <v>37.10446523263667</v>
+        <v>37.10446523263666</v>
       </c>
       <c r="K39" t="n">
-        <v>63.4174409948463</v>
+        <v>63.41744099484629</v>
       </c>
       <c r="L39" t="n">
-        <v>85.27257561588033</v>
+        <v>85.27257561588031</v>
       </c>
       <c r="M39" t="n">
-        <v>99.50907369618029</v>
+        <v>99.50907369618028</v>
       </c>
       <c r="N39" t="n">
         <v>102.1427827784282</v>
       </c>
       <c r="O39" t="n">
-        <v>93.44069102988909</v>
+        <v>93.44069102988908</v>
       </c>
       <c r="P39" t="n">
-        <v>74.99439242832436</v>
+        <v>74.99439242832435</v>
       </c>
       <c r="Q39" t="n">
         <v>50.13176529087124</v>
       </c>
       <c r="R39" t="n">
-        <v>24.38377094068079</v>
+        <v>24.38377094068078</v>
       </c>
       <c r="S39" t="n">
-        <v>7.294805731405978</v>
+        <v>7.294805731405976</v>
       </c>
       <c r="T39" t="n">
         <v>1.582981456236622</v>
@@ -34043,13 +34043,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.329252462222284</v>
+        <v>0.3292524622222839</v>
       </c>
       <c r="H40" t="n">
-        <v>2.927353709576309</v>
+        <v>2.927353709576308</v>
       </c>
       <c r="I40" t="n">
-        <v>9.901519500284691</v>
+        <v>9.901519500284689</v>
       </c>
       <c r="J40" t="n">
         <v>23.27814907911548</v>
@@ -34058,31 +34058,31 @@
         <v>38.25314970182535</v>
       </c>
       <c r="L40" t="n">
-        <v>48.95086151984758</v>
+        <v>48.95086151984757</v>
       </c>
       <c r="M40" t="n">
-        <v>51.61182005544402</v>
+        <v>51.61182005544401</v>
       </c>
       <c r="N40" t="n">
         <v>50.38460633261555</v>
       </c>
       <c r="O40" t="n">
-        <v>46.53833893301886</v>
+        <v>46.53833893301885</v>
       </c>
       <c r="P40" t="n">
-        <v>39.82158870368423</v>
+        <v>39.82158870368422</v>
       </c>
       <c r="Q40" t="n">
-        <v>27.57040390481326</v>
+        <v>27.57040390481325</v>
       </c>
       <c r="R40" t="n">
         <v>14.80438798319469</v>
       </c>
       <c r="S40" t="n">
-        <v>5.737972455273802</v>
+        <v>5.737972455273801</v>
       </c>
       <c r="T40" t="n">
-        <v>1.406805974949759</v>
+        <v>1.406805974949758</v>
       </c>
       <c r="U40" t="n">
         <v>0.0179592252121246</v>
@@ -34122,19 +34122,19 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.7340118847166491</v>
+        <v>0.734011884716649</v>
       </c>
       <c r="H41" t="n">
-        <v>7.517199214354385</v>
+        <v>7.517199214354384</v>
       </c>
       <c r="I41" t="n">
         <v>28.29799318553864</v>
       </c>
       <c r="J41" t="n">
-        <v>62.29834120046976</v>
+        <v>62.29834120046975</v>
       </c>
       <c r="K41" t="n">
-        <v>93.36906428052554</v>
+        <v>93.36906428052552</v>
       </c>
       <c r="L41" t="n">
         <v>115.8325804974227</v>
@@ -34152,7 +34152,7 @@
         <v>105.5518265371101</v>
       </c>
       <c r="Q41" t="n">
-        <v>79.26502591569511</v>
+        <v>79.26502591569509</v>
       </c>
       <c r="R41" t="n">
         <v>46.10787405333225</v>
@@ -34164,7 +34164,7 @@
         <v>3.213137025347133</v>
       </c>
       <c r="U41" t="n">
-        <v>0.05872095077733192</v>
+        <v>0.05872095077733191</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.3927309815255169</v>
+        <v>0.3927309815255168</v>
       </c>
       <c r="H42" t="n">
         <v>3.792954479470124</v>
@@ -34210,34 +34210,34 @@
         <v>13.52165879375135</v>
       </c>
       <c r="J42" t="n">
-        <v>37.10446523263667</v>
+        <v>37.10446523263666</v>
       </c>
       <c r="K42" t="n">
-        <v>63.4174409948463</v>
+        <v>63.41744099484629</v>
       </c>
       <c r="L42" t="n">
-        <v>85.27257561588033</v>
+        <v>85.27257561588031</v>
       </c>
       <c r="M42" t="n">
-        <v>99.50907369618029</v>
+        <v>99.50907369618028</v>
       </c>
       <c r="N42" t="n">
         <v>102.1427827784282</v>
       </c>
       <c r="O42" t="n">
-        <v>93.44069102988909</v>
+        <v>93.44069102988908</v>
       </c>
       <c r="P42" t="n">
-        <v>74.99439242832436</v>
+        <v>74.99439242832435</v>
       </c>
       <c r="Q42" t="n">
         <v>50.13176529087124</v>
       </c>
       <c r="R42" t="n">
-        <v>24.38377094068079</v>
+        <v>24.38377094068078</v>
       </c>
       <c r="S42" t="n">
-        <v>7.294805731405978</v>
+        <v>7.294805731405976</v>
       </c>
       <c r="T42" t="n">
         <v>1.582981456236622</v>
@@ -34280,13 +34280,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.329252462222284</v>
+        <v>0.3292524622222839</v>
       </c>
       <c r="H43" t="n">
-        <v>2.927353709576309</v>
+        <v>2.927353709576308</v>
       </c>
       <c r="I43" t="n">
-        <v>9.901519500284691</v>
+        <v>9.901519500284689</v>
       </c>
       <c r="J43" t="n">
         <v>23.27814907911548</v>
@@ -34295,31 +34295,31 @@
         <v>38.25314970182535</v>
       </c>
       <c r="L43" t="n">
-        <v>48.95086151984758</v>
+        <v>48.95086151984757</v>
       </c>
       <c r="M43" t="n">
-        <v>51.61182005544402</v>
+        <v>51.61182005544401</v>
       </c>
       <c r="N43" t="n">
         <v>50.38460633261555</v>
       </c>
       <c r="O43" t="n">
-        <v>46.53833893301886</v>
+        <v>46.53833893301885</v>
       </c>
       <c r="P43" t="n">
-        <v>39.82158870368423</v>
+        <v>39.82158870368422</v>
       </c>
       <c r="Q43" t="n">
-        <v>27.57040390481326</v>
+        <v>27.57040390481325</v>
       </c>
       <c r="R43" t="n">
         <v>14.80438798319469</v>
       </c>
       <c r="S43" t="n">
-        <v>5.737972455273802</v>
+        <v>5.737972455273801</v>
       </c>
       <c r="T43" t="n">
-        <v>1.406805974949759</v>
+        <v>1.406805974949758</v>
       </c>
       <c r="U43" t="n">
         <v>0.0179592252121246</v>
@@ -34359,19 +34359,19 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.7340118847166491</v>
+        <v>0.734011884716649</v>
       </c>
       <c r="H44" t="n">
-        <v>7.517199214354385</v>
+        <v>7.517199214354384</v>
       </c>
       <c r="I44" t="n">
         <v>28.29799318553864</v>
       </c>
       <c r="J44" t="n">
-        <v>62.29834120046976</v>
+        <v>62.29834120046975</v>
       </c>
       <c r="K44" t="n">
-        <v>93.36906428052554</v>
+        <v>93.36906428052552</v>
       </c>
       <c r="L44" t="n">
         <v>115.8325804974227</v>
@@ -34389,7 +34389,7 @@
         <v>105.5518265371101</v>
       </c>
       <c r="Q44" t="n">
-        <v>79.26502591569511</v>
+        <v>79.26502591569509</v>
       </c>
       <c r="R44" t="n">
         <v>46.10787405333225</v>
@@ -34401,7 +34401,7 @@
         <v>3.213137025347133</v>
       </c>
       <c r="U44" t="n">
-        <v>0.05872095077733192</v>
+        <v>0.05872095077733191</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3927309815255169</v>
+        <v>0.3927309815255168</v>
       </c>
       <c r="H45" t="n">
         <v>3.792954479470124</v>
@@ -34447,34 +34447,34 @@
         <v>13.52165879375135</v>
       </c>
       <c r="J45" t="n">
-        <v>37.10446523263667</v>
+        <v>37.10446523263666</v>
       </c>
       <c r="K45" t="n">
-        <v>63.4174409948463</v>
+        <v>63.41744099484629</v>
       </c>
       <c r="L45" t="n">
-        <v>85.27257561588033</v>
+        <v>85.27257561588031</v>
       </c>
       <c r="M45" t="n">
-        <v>99.50907369618029</v>
+        <v>99.50907369618028</v>
       </c>
       <c r="N45" t="n">
         <v>102.1427827784282</v>
       </c>
       <c r="O45" t="n">
-        <v>93.44069102988909</v>
+        <v>93.44069102988908</v>
       </c>
       <c r="P45" t="n">
-        <v>74.99439242832436</v>
+        <v>74.99439242832435</v>
       </c>
       <c r="Q45" t="n">
         <v>50.13176529087124</v>
       </c>
       <c r="R45" t="n">
-        <v>24.38377094068079</v>
+        <v>24.38377094068078</v>
       </c>
       <c r="S45" t="n">
-        <v>7.294805731405978</v>
+        <v>7.294805731405976</v>
       </c>
       <c r="T45" t="n">
         <v>1.582981456236622</v>
@@ -34517,13 +34517,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.329252462222284</v>
+        <v>0.3292524622222839</v>
       </c>
       <c r="H46" t="n">
-        <v>2.927353709576309</v>
+        <v>2.927353709576308</v>
       </c>
       <c r="I46" t="n">
-        <v>9.901519500284691</v>
+        <v>9.901519500284689</v>
       </c>
       <c r="J46" t="n">
         <v>23.27814907911548</v>
@@ -34532,31 +34532,31 @@
         <v>38.25314970182535</v>
       </c>
       <c r="L46" t="n">
-        <v>48.95086151984758</v>
+        <v>48.95086151984757</v>
       </c>
       <c r="M46" t="n">
-        <v>51.61182005544402</v>
+        <v>51.61182005544401</v>
       </c>
       <c r="N46" t="n">
         <v>50.38460633261555</v>
       </c>
       <c r="O46" t="n">
-        <v>46.53833893301886</v>
+        <v>46.53833893301885</v>
       </c>
       <c r="P46" t="n">
-        <v>39.82158870368423</v>
+        <v>39.82158870368422</v>
       </c>
       <c r="Q46" t="n">
-        <v>27.57040390481326</v>
+        <v>27.57040390481325</v>
       </c>
       <c r="R46" t="n">
         <v>14.80438798319469</v>
       </c>
       <c r="S46" t="n">
-        <v>5.737972455273802</v>
+        <v>5.737972455273801</v>
       </c>
       <c r="T46" t="n">
-        <v>1.406805974949759</v>
+        <v>1.406805974949758</v>
       </c>
       <c r="U46" t="n">
         <v>0.0179592252121246</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="N8" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="O8" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="P8" t="n">
         <v>6.598225711743297</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35254,10 +35254,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>6.598225711743296</v>
       </c>
       <c r="M9" t="n">
         <v>6.876045741711437</v>
@@ -35266,7 +35266,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="O9" t="n">
-        <v>6.598225711743297</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35339,13 +35339,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="M10" t="n">
-        <v>6.598225711743296</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="N10" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="O10" t="n">
-        <v>6.876045741711437</v>
+        <v>6.598225711743297</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>50.34905184585722</v>
+        <v>50.34905184585721</v>
       </c>
       <c r="K11" t="n">
         <v>197.4246258067097</v>
@@ -35430,7 +35430,7 @@
         <v>196.1175389533232</v>
       </c>
       <c r="Q11" t="n">
-        <v>69.27432670115027</v>
+        <v>69.27432670115026</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,16 +35488,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>36.3578739063788</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>190.0412390330659</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>317.5585411394653</v>
+        <v>297.3792205603557</v>
       </c>
       <c r="M12" t="n">
-        <v>423.0801035241619</v>
+        <v>423.0801035241618</v>
       </c>
       <c r="N12" t="n">
         <v>447.5775956193232</v>
@@ -35506,7 +35506,7 @@
         <v>344.7067658621742</v>
       </c>
       <c r="P12" t="n">
-        <v>12.90432013537717</v>
+        <v>259.4827536539312</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35570,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>15.98365787594249</v>
+        <v>15.98365787594248</v>
       </c>
       <c r="L13" t="n">
         <v>76.5408867801637</v>
       </c>
       <c r="M13" t="n">
-        <v>91.1956970172846</v>
+        <v>91.19569701728459</v>
       </c>
       <c r="N13" t="n">
         <v>94.51677871184413</v>
       </c>
       <c r="O13" t="n">
-        <v>71.12346684705852</v>
+        <v>71.12346684705849</v>
       </c>
       <c r="P13" t="n">
-        <v>37.1001479685777</v>
+        <v>37.10014796857769</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>50.34905184585723</v>
+        <v>50.34905184585712</v>
       </c>
       <c r="K14" t="n">
         <v>197.4246258067097</v>
@@ -35667,7 +35667,7 @@
         <v>196.1175389533232</v>
       </c>
       <c r="Q14" t="n">
-        <v>69.27432670115029</v>
+        <v>69.27432670115026</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>36.35787390637881</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>190.0412390330659</v>
@@ -35734,19 +35734,19 @@
         <v>317.5585411394653</v>
       </c>
       <c r="M15" t="n">
-        <v>56.27439106490891</v>
+        <v>423.0801035241618</v>
       </c>
       <c r="N15" t="n">
-        <v>447.5775956193232</v>
+        <v>447.5775956193231</v>
       </c>
       <c r="O15" t="n">
         <v>344.7067658621742</v>
       </c>
       <c r="P15" t="n">
-        <v>259.4827536539312</v>
+        <v>49.26219404175566</v>
       </c>
       <c r="Q15" t="n">
-        <v>120.2272789406988</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>15.9836578759425</v>
+        <v>15.98365787594248</v>
       </c>
       <c r="L16" t="n">
         <v>76.5408867801637</v>
       </c>
       <c r="M16" t="n">
-        <v>91.1956970172846</v>
+        <v>91.19569701728459</v>
       </c>
       <c r="N16" t="n">
-        <v>94.51677871184414</v>
+        <v>94.51677871184413</v>
       </c>
       <c r="O16" t="n">
-        <v>71.12346684705852</v>
+        <v>71.12346684705849</v>
       </c>
       <c r="P16" t="n">
-        <v>37.10014796857771</v>
+        <v>37.10014796857769</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35968,13 +35968,13 @@
         <v>190.0412390330659</v>
       </c>
       <c r="L18" t="n">
-        <v>317.5585411394653</v>
+        <v>70.98010762091089</v>
       </c>
       <c r="M18" t="n">
         <v>423.0801035241619</v>
       </c>
       <c r="N18" t="n">
-        <v>200.9991621007692</v>
+        <v>447.5775956193231</v>
       </c>
       <c r="O18" t="n">
         <v>344.7067658621742</v>
@@ -36123,7 +36123,7 @@
         <v>50.34905184585723</v>
       </c>
       <c r="K20" t="n">
-        <v>197.4246258067098</v>
+        <v>197.4246258067097</v>
       </c>
       <c r="L20" t="n">
         <v>297.7273800778859</v>
@@ -36199,19 +36199,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>36.35787390637881</v>
       </c>
       <c r="K21" t="n">
-        <v>177.1519416196569</v>
+        <v>190.0412390330659</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>317.5585411394653</v>
       </c>
       <c r="M21" t="n">
-        <v>423.0801035241619</v>
+        <v>56.27439106490868</v>
       </c>
       <c r="N21" t="n">
-        <v>447.5775956193232</v>
+        <v>447.5775956193231</v>
       </c>
       <c r="O21" t="n">
         <v>344.7067658621742</v>
@@ -36445,16 +36445,16 @@
         <v>317.5585411394653</v>
       </c>
       <c r="M24" t="n">
-        <v>402.9007829450522</v>
+        <v>423.0801035241619</v>
       </c>
       <c r="N24" t="n">
-        <v>447.5775956193232</v>
+        <v>447.5775956193231</v>
       </c>
       <c r="O24" t="n">
         <v>344.7067658621742</v>
       </c>
       <c r="P24" t="n">
-        <v>259.4827536539312</v>
+        <v>239.3034330748215</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>50.34905184585723</v>
+        <v>50.34905184585722</v>
       </c>
       <c r="K26" t="n">
         <v>197.4246258067097</v>
@@ -36615,7 +36615,7 @@
         <v>196.1175389533232</v>
       </c>
       <c r="Q26" t="n">
-        <v>69.27432670115029</v>
+        <v>69.27432670115027</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36673,16 +36673,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>36.35787390637881</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>190.0412390330659</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>317.5585411394653</v>
+        <v>297.3792205603557</v>
       </c>
       <c r="M27" t="n">
-        <v>56.2743910649088</v>
+        <v>423.0801035241619</v>
       </c>
       <c r="N27" t="n">
         <v>447.5775956193232</v>
@@ -36694,7 +36694,7 @@
         <v>259.4827536539312</v>
       </c>
       <c r="Q27" t="n">
-        <v>120.2272789406988</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36755,7 +36755,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>15.9836578759425</v>
+        <v>15.98365787594249</v>
       </c>
       <c r="L28" t="n">
         <v>76.5408867801637</v>
@@ -36764,13 +36764,13 @@
         <v>91.1956970172846</v>
       </c>
       <c r="N28" t="n">
-        <v>94.51677871184414</v>
+        <v>94.51677871184413</v>
       </c>
       <c r="O28" t="n">
         <v>71.12346684705852</v>
       </c>
       <c r="P28" t="n">
-        <v>37.10014796857771</v>
+        <v>37.1001479685777</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>50.34905184585723</v>
+        <v>50.34905184585722</v>
       </c>
       <c r="K29" t="n">
         <v>197.4246258067097</v>
@@ -36852,7 +36852,7 @@
         <v>196.1175389533232</v>
       </c>
       <c r="Q29" t="n">
-        <v>69.27432670115029</v>
+        <v>69.27432670115027</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>36.35787390637881</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>190.0412390330659</v>
@@ -36922,7 +36922,7 @@
         <v>423.0801035241619</v>
       </c>
       <c r="N30" t="n">
-        <v>80.77188316007039</v>
+        <v>117.1297570664489</v>
       </c>
       <c r="O30" t="n">
         <v>344.7067658621742</v>
@@ -36992,7 +36992,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>15.9836578759425</v>
+        <v>15.98365787594249</v>
       </c>
       <c r="L31" t="n">
         <v>76.5408867801637</v>
@@ -37001,13 +37001,13 @@
         <v>91.1956970172846</v>
       </c>
       <c r="N31" t="n">
-        <v>94.51677871184414</v>
+        <v>94.51677871184413</v>
       </c>
       <c r="O31" t="n">
         <v>71.12346684705852</v>
       </c>
       <c r="P31" t="n">
-        <v>37.10014796857771</v>
+        <v>37.1001479685777</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>50.34905184585723</v>
+        <v>50.34905184585722</v>
       </c>
       <c r="K32" t="n">
         <v>197.4246258067097</v>
@@ -37089,7 +37089,7 @@
         <v>196.1175389533232</v>
       </c>
       <c r="Q32" t="n">
-        <v>69.27432670115029</v>
+        <v>69.27432670115027</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>36.35787390637881</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>190.0412390330659</v>
@@ -37156,10 +37156,10 @@
         <v>317.5585411394653</v>
       </c>
       <c r="M33" t="n">
-        <v>423.0801035241619</v>
+        <v>212.8595439119865</v>
       </c>
       <c r="N33" t="n">
-        <v>80.77188316007062</v>
+        <v>447.5775956193232</v>
       </c>
       <c r="O33" t="n">
         <v>344.7067658621742</v>
@@ -37168,7 +37168,7 @@
         <v>259.4827536539312</v>
       </c>
       <c r="Q33" t="n">
-        <v>120.2272789406988</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37229,7 +37229,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>15.9836578759425</v>
+        <v>15.98365787594249</v>
       </c>
       <c r="L34" t="n">
         <v>76.5408867801637</v>
@@ -37238,13 +37238,13 @@
         <v>91.1956970172846</v>
       </c>
       <c r="N34" t="n">
-        <v>94.51677871184414</v>
+        <v>94.51677871184413</v>
       </c>
       <c r="O34" t="n">
         <v>71.12346684705852</v>
       </c>
       <c r="P34" t="n">
-        <v>37.10014796857771</v>
+        <v>37.1001479685777</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>50.34905184585724</v>
+        <v>50.34905184585723</v>
       </c>
       <c r="K35" t="n">
         <v>197.4246258067097</v>
@@ -37314,7 +37314,7 @@
         <v>297.7273800778859</v>
       </c>
       <c r="M35" t="n">
-        <v>348.0533646178122</v>
+        <v>348.0533646178121</v>
       </c>
       <c r="N35" t="n">
         <v>338.9054364350968</v>
@@ -37326,7 +37326,7 @@
         <v>196.1175389533232</v>
       </c>
       <c r="Q35" t="n">
-        <v>69.2743267011503</v>
+        <v>69.27432670115029</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>36.35787390637881</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>190.0412390330659</v>
@@ -37393,19 +37393,19 @@
         <v>317.5585411394653</v>
       </c>
       <c r="M36" t="n">
-        <v>315.7571447188402</v>
+        <v>423.0801035241619</v>
       </c>
       <c r="N36" t="n">
-        <v>447.5775956193232</v>
+        <v>237.3570360071477</v>
       </c>
       <c r="O36" t="n">
         <v>344.7067658621742</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>259.4827536539312</v>
       </c>
       <c r="Q36" t="n">
-        <v>120.2272789406988</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37469,19 +37469,19 @@
         <v>15.9836578759425</v>
       </c>
       <c r="L37" t="n">
-        <v>76.54088678016372</v>
+        <v>76.5408867801637</v>
       </c>
       <c r="M37" t="n">
         <v>91.1956970172846</v>
       </c>
       <c r="N37" t="n">
-        <v>94.51677871184415</v>
+        <v>94.51677871184414</v>
       </c>
       <c r="O37" t="n">
         <v>71.12346684705852</v>
       </c>
       <c r="P37" t="n">
-        <v>37.10014796857772</v>
+        <v>37.10014796857771</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>50.34905184585724</v>
+        <v>50.34905184585732</v>
       </c>
       <c r="K38" t="n">
         <v>197.4246258067097</v>
@@ -37551,10 +37551,10 @@
         <v>297.7273800778859</v>
       </c>
       <c r="M38" t="n">
-        <v>348.0533646178122</v>
+        <v>348.0533646178121</v>
       </c>
       <c r="N38" t="n">
-        <v>338.905436435097</v>
+        <v>338.9054364350968</v>
       </c>
       <c r="O38" t="n">
         <v>274.374714782111</v>
@@ -37563,7 +37563,7 @@
         <v>196.1175389533232</v>
       </c>
       <c r="Q38" t="n">
-        <v>69.2743267011503</v>
+        <v>69.27432670115029</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37624,13 +37624,13 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>190.0412390330659</v>
       </c>
       <c r="L39" t="n">
         <v>317.5585411394653</v>
       </c>
       <c r="M39" t="n">
-        <v>282.6735040043536</v>
+        <v>212.8595439119864</v>
       </c>
       <c r="N39" t="n">
         <v>447.5775956193232</v>
@@ -37639,10 +37639,10 @@
         <v>344.7067658621742</v>
       </c>
       <c r="P39" t="n">
-        <v>259.4827536539313</v>
+        <v>259.4827536539312</v>
       </c>
       <c r="Q39" t="n">
-        <v>120.2272789406988</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37706,19 +37706,19 @@
         <v>15.9836578759425</v>
       </c>
       <c r="L40" t="n">
-        <v>76.54088678016372</v>
+        <v>76.5408867801637</v>
       </c>
       <c r="M40" t="n">
         <v>91.1956970172846</v>
       </c>
       <c r="N40" t="n">
-        <v>94.51677871184415</v>
+        <v>94.51677871184414</v>
       </c>
       <c r="O40" t="n">
         <v>71.12346684705852</v>
       </c>
       <c r="P40" t="n">
-        <v>37.10014796857772</v>
+        <v>37.10014796857771</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>50.34905184585724</v>
+        <v>50.34905184585732</v>
       </c>
       <c r="K41" t="n">
         <v>197.4246258067097</v>
@@ -37788,7 +37788,7 @@
         <v>297.7273800778859</v>
       </c>
       <c r="M41" t="n">
-        <v>348.0533646178124</v>
+        <v>348.0533646178121</v>
       </c>
       <c r="N41" t="n">
         <v>338.9054364350968</v>
@@ -37800,7 +37800,7 @@
         <v>196.1175389533232</v>
       </c>
       <c r="Q41" t="n">
-        <v>69.2743267011503</v>
+        <v>69.27432670115029</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37864,7 +37864,7 @@
         <v>190.0412390330659</v>
       </c>
       <c r="L42" t="n">
-        <v>70.98010762091113</v>
+        <v>317.5585411394653</v>
       </c>
       <c r="M42" t="n">
         <v>423.0801035241619</v>
@@ -37876,7 +37876,7 @@
         <v>344.7067658621742</v>
       </c>
       <c r="P42" t="n">
-        <v>259.4827536539313</v>
+        <v>12.90432013537717</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37943,19 +37943,19 @@
         <v>15.9836578759425</v>
       </c>
       <c r="L43" t="n">
-        <v>76.54088678016372</v>
+        <v>76.5408867801637</v>
       </c>
       <c r="M43" t="n">
         <v>91.1956970172846</v>
       </c>
       <c r="N43" t="n">
-        <v>94.51677871184415</v>
+        <v>94.51677871184414</v>
       </c>
       <c r="O43" t="n">
         <v>71.12346684705852</v>
       </c>
       <c r="P43" t="n">
-        <v>37.10014796857772</v>
+        <v>37.10014796857771</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38016,16 +38016,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>50.34905184585724</v>
+        <v>50.34905184585723</v>
       </c>
       <c r="K44" t="n">
-        <v>197.4246258067099</v>
+        <v>197.4246258067097</v>
       </c>
       <c r="L44" t="n">
         <v>297.7273800778859</v>
       </c>
       <c r="M44" t="n">
-        <v>348.0533646178122</v>
+        <v>348.0533646178121</v>
       </c>
       <c r="N44" t="n">
         <v>338.9054364350968</v>
@@ -38037,7 +38037,7 @@
         <v>196.1175389533232</v>
       </c>
       <c r="Q44" t="n">
-        <v>69.2743267011503</v>
+        <v>69.27432670115053</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38104,16 +38104,16 @@
         <v>317.5585411394653</v>
       </c>
       <c r="M45" t="n">
-        <v>56.27439106490891</v>
+        <v>423.0801035241619</v>
       </c>
       <c r="N45" t="n">
-        <v>447.5775956193232</v>
+        <v>80.77188316007015</v>
       </c>
       <c r="O45" t="n">
         <v>344.7067658621742</v>
       </c>
       <c r="P45" t="n">
-        <v>259.4827536539313</v>
+        <v>259.4827536539312</v>
       </c>
       <c r="Q45" t="n">
         <v>120.2272789406988</v>
@@ -38180,19 +38180,19 @@
         <v>15.9836578759425</v>
       </c>
       <c r="L46" t="n">
-        <v>76.54088678016372</v>
+        <v>76.5408867801637</v>
       </c>
       <c r="M46" t="n">
         <v>91.1956970172846</v>
       </c>
       <c r="N46" t="n">
-        <v>94.51677871184415</v>
+        <v>94.51677871184414</v>
       </c>
       <c r="O46" t="n">
         <v>71.12346684705852</v>
       </c>
       <c r="P46" t="n">
-        <v>37.10014796857772</v>
+        <v>37.10014796857771</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
